--- a/Craig_Table_2010.xlsx
+++ b/Craig_Table_2010.xlsx
@@ -3045,9 +3045,9 @@
   <dimension ref="A1:AJ481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="O254" sqref="O254"/>
+      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -21407,7 +21407,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="232" spans="1:36">
+    <row r="232" spans="1:36" hidden="1">
       <c r="A232">
         <v>96</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="233" spans="1:36">
+    <row r="233" spans="1:36" hidden="1">
       <c r="A233">
         <v>97</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="237" spans="1:36" hidden="1">
+    <row r="237" spans="1:36">
       <c r="A237">
         <v>125</v>
       </c>
@@ -22212,26 +22212,26 @@
         <v>0.24955467004742601</v>
       </c>
       <c r="I242">
-        <f t="shared" ref="I242:I253" si="0">0.5*LN((1+G242)/(1-G242))</f>
+        <f>0.5*LN((1+G242)/(1-G242))</f>
         <v>6.8200544357650175E-2</v>
       </c>
       <c r="J242" s="3">
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="K242">
-        <f t="shared" ref="K242:K263" si="1">1/SQRT(E242-3)</f>
+        <f>1/SQRT(E242-3)</f>
         <v>7.4329414624716636E-2</v>
       </c>
       <c r="L242">
-        <f t="shared" ref="L242:L248" si="2">I242/K242</f>
+        <f>I242/K242</f>
         <v>0.91754448359359964</v>
       </c>
       <c r="M242">
-        <f t="shared" ref="M242:M263" si="3">E242-2</f>
+        <f>E242-2</f>
         <v>182</v>
       </c>
       <c r="N242" t="e">
-        <f t="shared" ref="N242:N248" ca="1" si="4">_xlfn.T.DIST.2T(L242,M242)</f>
+        <f ca="1">_xlfn.T.DIST.2T(L242,M242)</f>
         <v>#NAME?</v>
       </c>
       <c r="O242" s="4" t="s">
@@ -22327,26 +22327,26 @@
         <v>0.190574089764425</v>
       </c>
       <c r="I243">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G243)/(1-G243))</f>
         <v>0.18715497016418453</v>
       </c>
       <c r="J243" s="1">
         <v>7.0534561585859801E-2</v>
       </c>
       <c r="K243">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E243-3)</f>
         <v>7.0534561585859828E-2</v>
       </c>
       <c r="L243">
-        <f t="shared" si="2"/>
+        <f>I243/K243</f>
         <v>2.6533796475982316</v>
       </c>
       <c r="M243">
-        <f t="shared" si="3"/>
+        <f>E243-2</f>
         <v>202</v>
       </c>
       <c r="N243" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L243,M243)</f>
         <v>#NAME?</v>
       </c>
       <c r="O243" s="4" t="s">
@@ -22442,26 +22442,26 @@
         <v>0.24912928181115701</v>
       </c>
       <c r="I244">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G244)/(1-G244))</f>
         <v>0.24668500792427897</v>
       </c>
       <c r="J244">
         <v>0.1</v>
       </c>
       <c r="K244">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E244-3)</f>
         <v>0.1</v>
       </c>
       <c r="L244">
-        <f t="shared" si="2"/>
+        <f>I244/K244</f>
         <v>2.4668500792427897</v>
       </c>
       <c r="M244">
-        <f t="shared" si="3"/>
+        <f>E244-2</f>
         <v>101</v>
       </c>
       <c r="N244" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L244,M244)</f>
         <v>#NAME?</v>
       </c>
       <c r="O244" s="4" t="s">
@@ -22554,26 +22554,26 @@
         <v>0.15984766512078499</v>
       </c>
       <c r="I245">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G245)/(1-G245))</f>
         <v>0.15697680915297069</v>
       </c>
       <c r="J245" s="1">
         <v>7.1981575074869505E-2</v>
       </c>
       <c r="K245">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E245-3)</f>
         <v>7.198157507486945E-2</v>
       </c>
       <c r="L245">
-        <f t="shared" si="2"/>
+        <f>I245/K245</f>
         <v>2.1807915288001967</v>
       </c>
       <c r="M245">
-        <f t="shared" si="3"/>
+        <f>E245-2</f>
         <v>194</v>
       </c>
       <c r="N245" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L245,M245)</f>
         <v>#NAME?</v>
       </c>
       <c r="O245" s="4" t="s">
@@ -22657,26 +22657,26 @@
         <v>0.10842286736361</v>
       </c>
       <c r="I246">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G246)/(1-G246))</f>
         <v>9.024418785614681E-2</v>
       </c>
       <c r="J246" s="1">
         <v>5.3376051268362402E-2</v>
       </c>
       <c r="K246">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E246-3)</f>
         <v>5.3376051268362382E-2</v>
       </c>
       <c r="L246">
-        <f t="shared" si="2"/>
+        <f>I246/K246</f>
         <v>1.6907243175861775</v>
       </c>
       <c r="M246">
-        <f t="shared" si="3"/>
+        <f>E246-2</f>
         <v>352</v>
       </c>
       <c r="N246" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L246,M246)</f>
         <v>#NAME?</v>
       </c>
       <c r="O246" s="5" t="s">
@@ -22766,26 +22766,26 @@
         <v>0.17413913148267501</v>
       </c>
       <c r="I247">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G247)/(1-G247))</f>
         <v>0.12058102840844412</v>
       </c>
       <c r="J247">
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="K247">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E247-3)</f>
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="L247">
-        <f t="shared" si="2"/>
+        <f>I247/K247</f>
         <v>1.5156800246430662</v>
       </c>
       <c r="M247">
-        <f t="shared" si="3"/>
+        <f>E247-2</f>
         <v>159</v>
       </c>
       <c r="N247" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L247,M247)</f>
         <v>#NAME?</v>
       </c>
       <c r="O247" s="5" t="s">
@@ -22875,26 +22875,26 @@
         <v>0.27664810875740697</v>
       </c>
       <c r="I248">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G248)/(1-G248))</f>
         <v>0.27470781051792986</v>
       </c>
       <c r="J248">
         <v>0.107211253483779</v>
       </c>
       <c r="K248">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E248-3)</f>
         <v>0.10721125348377948</v>
       </c>
       <c r="L248">
-        <f t="shared" si="2"/>
+        <f>I248/K248</f>
         <v>2.5623038775448301</v>
       </c>
       <c r="M248">
-        <f t="shared" si="3"/>
+        <f>E248-2</f>
         <v>88</v>
       </c>
       <c r="N248" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">_xlfn.T.DIST.2T(L248,M248)</f>
         <v>#NAME?</v>
       </c>
       <c r="O248" s="4" t="s">
@@ -22984,21 +22984,21 @@
         <v>0.39912496552020998</v>
       </c>
       <c r="I249" t="e">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G249)/(1-G249))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J249">
         <v>0.242535625036333</v>
       </c>
       <c r="K249">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E249-3)</f>
         <v>0.24253562503633297</v>
       </c>
       <c r="L249" t="s">
         <v>795</v>
       </c>
       <c r="M249">
-        <f t="shared" si="3"/>
+        <f>E249-2</f>
         <v>18</v>
       </c>
       <c r="N249" t="s">
@@ -23091,21 +23091,21 @@
         <v>0.64250092791544</v>
       </c>
       <c r="I250" t="e">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G250)/(1-G250))</f>
         <v>#VALUE!</v>
       </c>
       <c r="J250">
         <v>0.25</v>
       </c>
       <c r="K250">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E250-3)</f>
         <v>0.25</v>
       </c>
       <c r="L250" t="s">
         <v>795</v>
       </c>
       <c r="M250">
-        <f t="shared" si="3"/>
+        <f>E250-2</f>
         <v>17</v>
       </c>
       <c r="N250" t="s">
@@ -23195,14 +23195,14 @@
         <v>0.48509999999999998</v>
       </c>
       <c r="I251">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G251)/(1-G251))</f>
         <v>0.52963234099240197</v>
       </c>
       <c r="J251">
         <v>0.16669999999999999</v>
       </c>
       <c r="K251">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E251-3)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="L251">
@@ -23210,7 +23210,7 @@
         <v>3.1777940459544118</v>
       </c>
       <c r="M251">
-        <f t="shared" si="3"/>
+        <f>E251-2</f>
         <v>37</v>
       </c>
       <c r="N251" t="e">
@@ -23307,14 +23307,14 @@
         <v>0.39655798997060099</v>
       </c>
       <c r="I252">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G252)/(1-G252))</f>
         <v>0.39772417941721228</v>
       </c>
       <c r="J252">
         <v>0.115470053837925</v>
       </c>
       <c r="K252">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E252-3)</f>
         <v>0.11470786693528087</v>
       </c>
       <c r="L252">
@@ -23322,7 +23322,7 @@
         <v>3.4672790109645359</v>
       </c>
       <c r="M252">
-        <f t="shared" si="3"/>
+        <f>E252-2</f>
         <v>77</v>
       </c>
       <c r="N252" t="e">
@@ -23422,14 +23422,14 @@
         <v>0.21840781899612</v>
       </c>
       <c r="I253">
-        <f t="shared" si="0"/>
+        <f>0.5*LN((1+G253)/(1-G253))</f>
         <v>7.6549170686205217E-2</v>
       </c>
       <c r="J253" s="1">
         <v>9.4491118252306799E-2</v>
       </c>
       <c r="K253">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E253-3)</f>
         <v>9.284766908852593E-2</v>
       </c>
       <c r="L253">
@@ -23437,7 +23437,7 @@
         <v>0.82445979998936914</v>
       </c>
       <c r="M253">
-        <f t="shared" si="3"/>
+        <f>E253-2</f>
         <v>117</v>
       </c>
       <c r="N253" t="e">
@@ -23508,7 +23508,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="15.75">
+    <row r="254" spans="1:36" ht="15.75" hidden="1">
       <c r="A254">
         <v>98</v>
       </c>
@@ -23540,14 +23540,14 @@
         <v>0.145864991497895</v>
       </c>
       <c r="K254">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E254-3)</f>
         <v>0.14586499149789456</v>
       </c>
       <c r="L254" t="s">
         <v>795</v>
       </c>
       <c r="M254">
-        <f t="shared" si="3"/>
+        <f>E254-2</f>
         <v>48</v>
       </c>
       <c r="N254" t="s">
@@ -23608,7 +23608,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="15.75">
+    <row r="255" spans="1:36" ht="15.75" hidden="1">
       <c r="A255">
         <v>99</v>
       </c>
@@ -23640,14 +23640,14 @@
         <v>0.145864991497895</v>
       </c>
       <c r="K255">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E255-3)</f>
         <v>0.14586499149789456</v>
       </c>
       <c r="L255" t="s">
         <v>795</v>
       </c>
       <c r="M255">
-        <f t="shared" si="3"/>
+        <f>E255-2</f>
         <v>48</v>
       </c>
       <c r="N255" t="s">
@@ -23711,7 +23711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="15.75">
+    <row r="256" spans="1:36" ht="15.75" hidden="1">
       <c r="B256" t="s">
         <v>804</v>
       </c>
@@ -23739,19 +23739,19 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="K256">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E256-3)</f>
         <v>0.10153461651336192</v>
       </c>
       <c r="L256">
-        <f t="shared" ref="L256:L263" si="5">I256/K256</f>
+        <f>I256/K256</f>
         <v>2.0994942797347003</v>
       </c>
       <c r="M256">
-        <f t="shared" si="3"/>
+        <f>E256-2</f>
         <v>98</v>
       </c>
       <c r="N256" t="e">
-        <f t="shared" ref="N256:N263" ca="1" si="6">_xlfn.T.DIST.2T(L256,M256)</f>
+        <f ca="1">_xlfn.T.DIST.2T(L256,M256)</f>
         <v>#NAME?</v>
       </c>
       <c r="O256" s="4" t="s">
@@ -23848,19 +23848,19 @@
         <v>0.117041147196131</v>
       </c>
       <c r="K257">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E257-3)</f>
         <v>0.11704114719613057</v>
       </c>
       <c r="L257">
-        <f t="shared" si="5"/>
+        <f>I257/K257</f>
         <v>2.2736312249889821</v>
       </c>
       <c r="M257">
-        <f t="shared" si="3"/>
+        <f>E257-2</f>
         <v>74</v>
       </c>
       <c r="N257" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L257,M257)</f>
         <v>#NAME?</v>
       </c>
       <c r="O257" s="4" t="s">
@@ -23924,65 +23924,46 @@
         <v>774</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="15.75" hidden="1">
+    <row r="258" spans="1:36">
       <c r="A258">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B258" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C258" t="s">
         <v>737</v>
       </c>
       <c r="D258" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="E258" s="2">
-        <v>90</v>
-      </c>
-      <c r="F258" s="4">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="G258" s="4">
-        <v>0.21129999999999999</v>
+        <v>141</v>
+      </c>
+      <c r="F258">
+        <v>0.32700000000000001</v>
       </c>
       <c r="H258">
-        <v>0.21830297482824301</v>
-      </c>
-      <c r="I258">
-        <f>0.5*LN((1+G258)/(1-G258))</f>
-        <v>0.2145317108094057</v>
-      </c>
-      <c r="J258">
-        <v>0.107211253483779</v>
-      </c>
-      <c r="K258">
-        <f t="shared" si="1"/>
-        <v>0.10721125348377948</v>
-      </c>
-      <c r="L258">
-        <f t="shared" si="5"/>
-        <v>2.0010185856269582</v>
-      </c>
-      <c r="M258">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="N258" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="O258" s="4" t="s">
+        <v>0.33946535234373998</v>
+      </c>
+      <c r="J258" s="1">
+        <v>8.5125653075874899E-2</v>
+      </c>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" t="s">
         <v>506</v>
       </c>
       <c r="P258" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="Q258" t="s">
         <v>727</v>
       </c>
       <c r="R258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S258" t="s">
         <v>729</v>
@@ -23990,9 +23971,6 @@
       <c r="T258" t="s">
         <v>727</v>
       </c>
-      <c r="U258" t="s">
-        <v>727</v>
-      </c>
       <c r="V258" t="s">
         <v>731</v>
       </c>
@@ -24000,10 +23978,10 @@
         <v>732</v>
       </c>
       <c r="X258" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="Y258" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="Z258" t="s">
         <v>733</v>
@@ -24018,22 +23996,13 @@
         <v>733</v>
       </c>
       <c r="AD258">
-        <v>0.21490000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="AE258" t="s">
         <v>733</v>
       </c>
       <c r="AF258" t="s">
         <v>735</v>
-      </c>
-      <c r="AH258" t="s">
-        <v>775</v>
-      </c>
-      <c r="AI258">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="AJ258" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="259" spans="1:36" ht="15.75" hidden="1">
@@ -24069,19 +24038,19 @@
         <v>0.128036879932896</v>
       </c>
       <c r="K259">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E259-3)</f>
         <v>0.12803687993289598</v>
       </c>
       <c r="L259">
-        <f t="shared" si="5"/>
+        <f>I259/K259</f>
         <v>1.4698156255931552</v>
       </c>
       <c r="M259">
-        <f t="shared" si="3"/>
+        <f>E259-2</f>
         <v>62</v>
       </c>
       <c r="N259" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L259,M259)</f>
         <v>#NAME?</v>
       </c>
       <c r="O259" s="4" t="s">
@@ -24181,19 +24150,19 @@
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="K260">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E260-3)</f>
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="L260">
-        <f t="shared" si="5"/>
+        <f>I260/K260</f>
         <v>2.9516802455953348</v>
       </c>
       <c r="M260">
-        <f t="shared" si="3"/>
+        <f>E260-2</f>
         <v>159</v>
       </c>
       <c r="N260" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L260,M260)</f>
         <v>#NAME?</v>
       </c>
       <c r="O260" s="12" t="s">
@@ -24290,19 +24259,19 @@
         <v>0.132453235706504</v>
       </c>
       <c r="K261">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E261-3)</f>
         <v>0.13245323570650439</v>
       </c>
       <c r="L261">
-        <f t="shared" si="5"/>
+        <f>I261/K261</f>
         <v>2.3950328999141322</v>
       </c>
       <c r="M261">
-        <f t="shared" si="3"/>
+        <f>E261-2</f>
         <v>58</v>
       </c>
       <c r="N261" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L261,M261)</f>
         <v>#NAME?</v>
       </c>
       <c r="O261" s="8" t="s">
@@ -24393,19 +24362,19 @@
         <v>0.14907119849998601</v>
       </c>
       <c r="K262">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E262-3)</f>
         <v>0.14907119849998599</v>
       </c>
       <c r="L262">
-        <f t="shared" si="5"/>
+        <f>I262/K262</f>
         <v>2.1673667082528731</v>
       </c>
       <c r="M262">
-        <f t="shared" si="3"/>
+        <f>E262-2</f>
         <v>46</v>
       </c>
       <c r="N262" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L262,M262)</f>
         <v>#NAME?</v>
       </c>
       <c r="O262" s="6" t="s">
@@ -24499,19 +24468,19 @@
         <v>0.18898223650461399</v>
       </c>
       <c r="K263">
-        <f t="shared" si="1"/>
+        <f>1/SQRT(E263-3)</f>
         <v>0.1889822365046136</v>
       </c>
       <c r="L263">
-        <f t="shared" si="5"/>
+        <f>I263/K263</f>
         <v>1.6786226212822644</v>
       </c>
       <c r="M263">
-        <f t="shared" si="3"/>
+        <f>E263-2</f>
         <v>29</v>
       </c>
       <c r="N263" t="e">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">_xlfn.T.DIST.2T(L263,M263)</f>
         <v>#NAME?</v>
       </c>
       <c r="O263" s="6" t="s">
@@ -25286,45 +25255,45 @@
         <v>735</v>
       </c>
     </row>
-    <row r="273" spans="1:36" hidden="1">
+    <row r="273" spans="1:36">
       <c r="A273">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B273" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C273" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D273" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="E273" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F273">
-        <v>0.38329999999999997</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="H273">
-        <v>0.403922272941661</v>
+        <v>0.136847915238521</v>
       </c>
       <c r="J273">
-        <v>0.15617376188860599</v>
+        <v>0.120385853085769</v>
       </c>
       <c r="O273" t="s">
         <v>506</v>
       </c>
       <c r="P273" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="Q273" t="s">
         <v>727</v>
       </c>
       <c r="R273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S273" t="s">
-        <v>729</v>
+        <v>681</v>
       </c>
       <c r="T273" t="s">
         <v>727</v>
@@ -25336,10 +25305,10 @@
         <v>732</v>
       </c>
       <c r="X273" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="Y273" t="s">
-        <v>730</v>
+        <v>662</v>
       </c>
       <c r="Z273" t="s">
         <v>733</v>
@@ -25354,7 +25323,7 @@
         <v>733</v>
       </c>
       <c r="AD273">
-        <v>0.38329999999999997</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="AE273" t="s">
         <v>733</v>
@@ -26404,7 +26373,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="287" spans="1:36">
+    <row r="287" spans="1:36" hidden="1">
       <c r="A287">
         <v>102</v>
       </c>
@@ -26482,7 +26451,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="288" spans="1:36">
+    <row r="288" spans="1:36" hidden="1">
       <c r="A288">
         <v>103</v>
       </c>
@@ -29898,7 +29867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:32">
+    <row r="331" spans="1:32" hidden="1">
       <c r="A331">
         <v>75</v>
       </c>
@@ -30694,12 +30663,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="341" spans="1:32" hidden="1">
+    <row r="341" spans="1:32">
       <c r="A341">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B341" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C341" t="s">
         <v>737</v>
@@ -30708,21 +30677,17 @@
         <v>733</v>
       </c>
       <c r="E341" s="2">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="F341">
-        <v>0.32700000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="H341">
-        <v>0.33946535234373998</v>
-      </c>
-      <c r="J341" s="1">
-        <v>8.5125653075874899E-2</v>
-      </c>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-      <c r="M341" s="1"/>
-      <c r="N341" s="1"/>
+        <v>0.14705085174305699</v>
+      </c>
+      <c r="J341">
+        <v>0.123091490979333</v>
+      </c>
       <c r="O341" t="s">
         <v>506</v>
       </c>
@@ -30736,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="S341" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="T341" t="s">
         <v>727</v>
@@ -30751,7 +30716,7 @@
         <v>751</v>
       </c>
       <c r="Y341" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="Z341" t="s">
         <v>733</v>
@@ -30766,7 +30731,7 @@
         <v>733</v>
       </c>
       <c r="AD341">
-        <v>0.34</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="AE341" t="s">
         <v>733</v>
@@ -30933,46 +30898,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:32" hidden="1">
+    <row r="344" spans="1:32">
       <c r="A344">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B344" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C344" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D344" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E344" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F344">
-        <v>0.23</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="H344">
-        <v>0.234189466759367</v>
-      </c>
-      <c r="J344" s="1">
-        <v>8.7038827977848898E-2</v>
-      </c>
-      <c r="K344" s="1"/>
-      <c r="L344" s="1"/>
-      <c r="M344" s="1"/>
-      <c r="N344" s="1"/>
+        <v>0.403922272941661</v>
+      </c>
+      <c r="J344">
+        <v>0.15617376188860599</v>
+      </c>
       <c r="O344" t="s">
         <v>506</v>
       </c>
       <c r="P344" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Q344" t="s">
         <v>727</v>
       </c>
       <c r="R344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S344" t="s">
         <v>729</v>
@@ -30987,10 +30948,10 @@
         <v>732</v>
       </c>
       <c r="X344" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="Y344" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="Z344" t="s">
         <v>733</v>
@@ -31005,7 +30966,7 @@
         <v>733</v>
       </c>
       <c r="AD344">
-        <v>0.23</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="AE344" t="s">
         <v>733</v>
@@ -34228,7 +34189,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="385" spans="1:36">
+    <row r="385" spans="1:36" hidden="1">
       <c r="A385">
         <v>70</v>
       </c>
@@ -35090,7 +35051,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="396" spans="1:36" ht="15.75">
+    <row r="396" spans="1:36" ht="15.75" hidden="1">
       <c r="A396">
         <v>71</v>
       </c>
@@ -36197,7 +36158,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="410" spans="1:36">
+    <row r="410" spans="1:36" hidden="1">
       <c r="A410">
         <v>72</v>
       </c>
@@ -36351,7 +36312,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="412" spans="1:36">
+    <row r="412" spans="1:36" hidden="1">
       <c r="A412">
         <v>100</v>
       </c>
@@ -36428,7 +36389,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="413" spans="1:36">
+    <row r="413" spans="1:36" hidden="1">
       <c r="A413">
         <v>101</v>
       </c>
@@ -38609,7 +38570,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="441" spans="1:36">
+    <row r="441" spans="1:36" hidden="1">
       <c r="A441">
         <v>73</v>
       </c>
@@ -40484,7 +40445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="465" spans="1:32" hidden="1">
+    <row r="465" spans="1:36" hidden="1">
       <c r="A465">
         <v>21</v>
       </c>
@@ -40561,7 +40522,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="466" spans="1:32" hidden="1">
+    <row r="466" spans="1:36" hidden="1">
       <c r="A466">
         <v>43</v>
       </c>
@@ -40638,47 +40599,73 @@
         <v>735</v>
       </c>
     </row>
-    <row r="467" spans="1:32" hidden="1">
+    <row r="467" spans="1:36" ht="15.75">
       <c r="A467">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B467" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C467" t="s">
         <v>737</v>
       </c>
       <c r="D467" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="E467" s="2">
-        <v>72</v>
-      </c>
-      <c r="F467">
-        <v>0.13600000000000001</v>
+        <v>90</v>
+      </c>
+      <c r="F467" s="4">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="G467" s="4">
+        <v>0.21129999999999999</v>
       </c>
       <c r="H467">
-        <v>0.136847915238521</v>
+        <v>0.21830297482824301</v>
+      </c>
+      <c r="I467">
+        <f>0.5*LN((1+G467)/(1-G467))</f>
+        <v>0.2145317108094057</v>
       </c>
       <c r="J467">
-        <v>0.120385853085769</v>
-      </c>
-      <c r="O467" t="s">
+        <v>0.107211253483779</v>
+      </c>
+      <c r="K467">
+        <f>1/SQRT(E467-3)</f>
+        <v>0.10721125348377948</v>
+      </c>
+      <c r="L467">
+        <f>I467/K467</f>
+        <v>2.0010185856269582</v>
+      </c>
+      <c r="M467">
+        <f>E467-2</f>
+        <v>88</v>
+      </c>
+      <c r="N467" t="e">
+        <f ca="1">_xlfn.T.DIST.2T(L467,M467)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O467" s="4" t="s">
         <v>506</v>
       </c>
       <c r="P467" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Q467" t="s">
         <v>727</v>
       </c>
       <c r="R467">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S467" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="T467" t="s">
+        <v>727</v>
+      </c>
+      <c r="U467" t="s">
         <v>727</v>
       </c>
       <c r="V467" t="s">
@@ -40688,10 +40675,10 @@
         <v>732</v>
       </c>
       <c r="X467" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="Y467" t="s">
-        <v>662</v>
+        <v>730</v>
       </c>
       <c r="Z467" t="s">
         <v>733</v>
@@ -40706,7 +40693,7 @@
         <v>733</v>
       </c>
       <c r="AD467">
-        <v>0.13600000000000001</v>
+        <v>0.21490000000000001</v>
       </c>
       <c r="AE467" t="s">
         <v>733</v>
@@ -40714,13 +40701,22 @@
       <c r="AF467" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="468" spans="1:32" hidden="1">
+      <c r="AH467" t="s">
+        <v>775</v>
+      </c>
+      <c r="AI467">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="AJ467" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="468" spans="1:36">
       <c r="A468">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B468" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C468" t="s">
         <v>737</v>
@@ -40729,17 +40725,21 @@
         <v>733</v>
       </c>
       <c r="E468" s="2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="F468">
-        <v>0.14399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="H468">
-        <v>0.14500789789900101</v>
-      </c>
-      <c r="J468">
-        <v>0.120385853085769</v>
-      </c>
+        <v>0.234189466759367</v>
+      </c>
+      <c r="J468" s="1">
+        <v>8.7038827977848898E-2</v>
+      </c>
+      <c r="K468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="M468" s="1"/>
+      <c r="N468" s="1"/>
       <c r="O468" t="s">
         <v>506</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>3</v>
       </c>
       <c r="S468" t="s">
-        <v>679</v>
+        <v>729</v>
       </c>
       <c r="T468" t="s">
         <v>727</v>
@@ -40768,7 +40768,7 @@
         <v>751</v>
       </c>
       <c r="Y468" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="Z468" t="s">
         <v>733</v>
@@ -40783,7 +40783,7 @@
         <v>733</v>
       </c>
       <c r="AD468">
-        <v>0.14399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="AE468" t="s">
         <v>733</v>
@@ -40792,12 +40792,12 @@
         <v>735</v>
       </c>
     </row>
-    <row r="469" spans="1:32" hidden="1">
+    <row r="469" spans="1:36">
       <c r="A469">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B469" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C469" t="s">
         <v>737</v>
@@ -40806,16 +40806,16 @@
         <v>733</v>
       </c>
       <c r="E469" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F469">
-        <v>0.14599999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="H469">
-        <v>0.14705085174305699</v>
+        <v>0.14500789789900101</v>
       </c>
       <c r="J469">
-        <v>0.123091490979333</v>
+        <v>0.120385853085769</v>
       </c>
       <c r="O469" t="s">
         <v>506</v>
@@ -40827,7 +40827,7 @@
         <v>727</v>
       </c>
       <c r="R469">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S469" t="s">
         <v>679</v>
@@ -40860,7 +40860,7 @@
         <v>733</v>
       </c>
       <c r="AD469">
-        <v>0.14599999999999999</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AE469" t="s">
         <v>733</v>
@@ -40869,7 +40869,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="470" spans="1:32" hidden="1">
+    <row r="470" spans="1:36">
       <c r="A470">
         <v>131</v>
       </c>
@@ -40947,7 +40947,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="471" spans="1:32" hidden="1">
+    <row r="471" spans="1:36" hidden="1">
       <c r="A471">
         <v>261</v>
       </c>
@@ -41024,7 +41024,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="472" spans="1:32" hidden="1">
+    <row r="472" spans="1:36" hidden="1">
       <c r="A472">
         <v>192</v>
       </c>
@@ -41101,7 +41101,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="473" spans="1:32" hidden="1">
+    <row r="473" spans="1:36" hidden="1">
       <c r="A473">
         <v>88</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="474" spans="1:32" hidden="1">
+    <row r="474" spans="1:36" hidden="1">
       <c r="A474">
         <v>187</v>
       </c>
@@ -41255,7 +41255,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="475" spans="1:32">
+    <row r="475" spans="1:36" hidden="1">
       <c r="A475">
         <v>76</v>
       </c>
@@ -41337,7 +41337,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="476" spans="1:32" hidden="1">
+    <row r="476" spans="1:36" hidden="1">
       <c r="A476">
         <v>150</v>
       </c>
@@ -41419,7 +41419,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="477" spans="1:32" hidden="1">
+    <row r="477" spans="1:36" hidden="1">
       <c r="A477">
         <v>151</v>
       </c>
@@ -41501,7 +41501,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="478" spans="1:32" hidden="1">
+    <row r="478" spans="1:36" hidden="1">
       <c r="A478">
         <v>202</v>
       </c>
@@ -41578,7 +41578,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="479" spans="1:32" hidden="1">
+    <row r="479" spans="1:36" hidden="1">
       <c r="A479">
         <v>203</v>
       </c>
@@ -41660,7 +41660,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="480" spans="1:32" hidden="1">
+    <row r="480" spans="1:36" hidden="1">
       <c r="A480">
         <v>305</v>
       </c>
@@ -41747,14 +41747,14 @@
   <autoFilter ref="A1:AJ481">
     <filterColumn colId="2"/>
     <filterColumn colId="14">
-      <customFilters>
-        <customFilter val="*Brady*"/>
-      </customFilters>
+      <filters>
+        <filter val="Carnagey, N. L., &amp; Anderson, C.A. (2005). The effects of reward and punishment in violent video games on aggressive affect, cognition, and behavior. Psychological Science, 16, 882-889."/>
+      </filters>
     </filterColumn>
     <filterColumn colId="15"/>
     <filterColumn colId="24"/>
-    <sortState ref="A5:AJ474">
-      <sortCondition descending="1" ref="E1:E481"/>
+    <sortState ref="A237:AJ470">
+      <sortCondition ref="R1:R481"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Craig_Table_2010.xlsx
+++ b/Craig_Table_2010.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Craig_Table_2010!$A$1:$AJ$481</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8262" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8288" uniqueCount="825">
   <si>
     <t xml:space="preserve">Yukawa, S., &amp; Sakamoto, A. (2001). Terebi oyobi terebigemu niokeru bouryoku ga seishounen no kougekisei ni oyobosu eikyo: chugakusei oyobi koukousei wo taisho toshita juudan deta no bunseki [The effects of television and videogame violence on aggression of youth: A longitudinal study of junior high school and high school students]. Proceeding of the 42nd convention of the Japanese Society of Social Psychology, pp. 502-503. </t>
   </si>
@@ -2349,9 +2349,6 @@
     <t>F(1, 135) = 6.50</t>
   </si>
   <si>
-    <t>May overestimate precision if SE based on all N -- effect size derived from just two of three groups.</t>
-  </si>
-  <si>
     <t>Here I used the "violent vs all others" although "violent vs neutral" may be more appropriate, or maybe should be two lines</t>
   </si>
   <si>
@@ -2482,13 +2479,28 @@
   </si>
   <si>
     <t>effect on verbal aggression slightly smaller (B = .091)</t>
+  </si>
+  <si>
+    <t>CA05AA1JH</t>
+  </si>
+  <si>
+    <t>CA05AC2JH</t>
+  </si>
+  <si>
+    <t>CA05AC3JH</t>
+  </si>
+  <si>
+    <t>Violent-reward vs nonviolent. Violent-punish dropped.</t>
+  </si>
+  <si>
+    <t>No idea what this is, it's not the nonsignificant effect of Prior VVG Exposure on study outcome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color indexed="8"/>
@@ -3040,24 +3052,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ481"/>
+  <dimension ref="A1:AJ484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C468" sqref="C468"/>
+      <selection pane="bottomLeft" activeCell="AJ467" sqref="AJ467"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="100.33203125" customWidth="1"/>
+    <col min="15" max="15" width="83" customWidth="1"/>
     <col min="17" max="17" width="7.33203125" customWidth="1"/>
     <col min="19" max="25" width="9" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" customWidth="1"/>
@@ -3065,7 +3077,7 @@
     <col min="34" max="34" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>698</v>
       </c>
@@ -3088,22 +3100,22 @@
         <v>704</v>
       </c>
       <c r="I1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J1" t="s">
         <v>703</v>
       </c>
       <c r="K1" t="s">
+        <v>814</v>
+      </c>
+      <c r="L1" t="s">
+        <v>817</v>
+      </c>
+      <c r="M1" t="s">
+        <v>816</v>
+      </c>
+      <c r="N1" t="s">
         <v>815</v>
-      </c>
-      <c r="L1" t="s">
-        <v>818</v>
-      </c>
-      <c r="M1" t="s">
-        <v>817</v>
-      </c>
-      <c r="N1" t="s">
-        <v>816</v>
       </c>
       <c r="O1" t="s">
         <v>705</v>
@@ -3124,7 +3136,7 @@
         <v>710</v>
       </c>
       <c r="U1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V1" t="s">
         <v>711</v>
@@ -3166,10 +3178,10 @@
         <v>768</v>
       </c>
       <c r="AI1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" hidden="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>190</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>191</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1">
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>419</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>335</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1">
+    <row r="6" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>336</v>
       </c>
@@ -3558,7 +3570,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.75" hidden="1">
+    <row r="7" spans="1:35" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>217</v>
       </c>
@@ -3639,10 +3651,10 @@
         <v>390</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" hidden="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>427</v>
       </c>
@@ -3723,7 +3735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>428</v>
       </c>
@@ -3804,7 +3816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:35" hidden="1">
+    <row r="10" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>450</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1">
+    <row r="11" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>437</v>
       </c>
@@ -3966,7 +3978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:35" hidden="1">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>440</v>
       </c>
@@ -4043,7 +4055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1">
+    <row r="13" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>438</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1">
+    <row r="14" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>441</v>
       </c>
@@ -4203,7 +4215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1">
+    <row r="15" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>451</v>
       </c>
@@ -4284,7 +4296,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:35" hidden="1">
+    <row r="16" spans="1:35" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>159</v>
       </c>
@@ -4361,7 +4373,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="17" spans="1:32" hidden="1">
+    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>160</v>
       </c>
@@ -4442,7 +4454,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="18" spans="1:32" hidden="1">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>341</v>
       </c>
@@ -4519,7 +4531,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:32" hidden="1">
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>444</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:32" hidden="1">
+    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>445</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="21" spans="1:32" hidden="1">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>222</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:32" hidden="1">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>285</v>
       </c>
@@ -4835,7 +4847,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:32" hidden="1">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>227</v>
       </c>
@@ -4916,7 +4928,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:32" hidden="1">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>290</v>
       </c>
@@ -4997,7 +5009,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:32" hidden="1">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>223</v>
       </c>
@@ -5078,7 +5090,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:32" hidden="1">
+    <row r="26" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>286</v>
       </c>
@@ -5159,7 +5171,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:32" hidden="1">
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>228</v>
       </c>
@@ -5240,7 +5252,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:32" hidden="1">
+    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>291</v>
       </c>
@@ -5321,7 +5333,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:32" hidden="1">
+    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>224</v>
       </c>
@@ -5403,7 +5415,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:32" hidden="1">
+    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>287</v>
       </c>
@@ -5484,7 +5496,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:32" hidden="1">
+    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>229</v>
       </c>
@@ -5566,7 +5578,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:32" hidden="1">
+    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>292</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="1:32" hidden="1">
+    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>158</v>
       </c>
@@ -5728,7 +5740,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="1:32" hidden="1">
+    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>254</v>
       </c>
@@ -5809,7 +5821,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:32" hidden="1">
+    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>255</v>
       </c>
@@ -5890,7 +5902,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:32" hidden="1">
+    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>205</v>
       </c>
@@ -5971,7 +5983,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="37" spans="1:32" hidden="1">
+    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>226</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="1:32" hidden="1">
+    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>230</v>
       </c>
@@ -6133,7 +6145,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:32" hidden="1">
+    <row r="39" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>258</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="40" spans="1:32" hidden="1">
+    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>259</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:32" hidden="1">
+    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>289</v>
       </c>
@@ -6377,7 +6389,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:32" hidden="1">
+    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>293</v>
       </c>
@@ -6459,7 +6471,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:32" hidden="1">
+    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>343</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:32" hidden="1">
+    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>344</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:32" hidden="1">
+    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>232</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="46" spans="1:32" hidden="1">
+    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>346</v>
       </c>
@@ -6777,7 +6789,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:32" hidden="1">
+    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>347</v>
       </c>
@@ -6858,7 +6870,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:32" hidden="1">
+    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>118</v>
       </c>
@@ -6935,7 +6947,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="15.75" hidden="1">
+    <row r="49" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>117</v>
       </c>
@@ -7018,7 +7030,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1">
+    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>348</v>
       </c>
@@ -7095,7 +7107,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1">
+    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>472</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1">
+    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>251</v>
       </c>
@@ -7209,9 +7221,9 @@
         <f>E52-2</f>
         <v>22</v>
       </c>
-      <c r="N52" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L52,M52)</f>
-        <v>#NAME?</v>
+      <c r="N52">
+        <f>_xlfn.T.DIST.2T(L52,M52)</f>
+        <v>0.37369040777304596</v>
       </c>
       <c r="O52" t="s">
         <v>320</v>
@@ -7268,7 +7280,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1">
+    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>349</v>
       </c>
@@ -7305,9 +7317,9 @@
         <f>E53-2</f>
         <v>53</v>
       </c>
-      <c r="N53" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L53,M53)</f>
-        <v>#NAME?</v>
+      <c r="N53">
+        <f>_xlfn.T.DIST.2T(L53,M53)</f>
+        <v>3.0371295414235017E-2</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>148</v>
@@ -7364,7 +7376,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1">
+    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>351</v>
       </c>
@@ -7401,9 +7413,9 @@
         <f>E54-2</f>
         <v>33</v>
       </c>
-      <c r="N54" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L54,M54)</f>
-        <v>#NAME?</v>
+      <c r="N54">
+        <f>_xlfn.T.DIST.2T(L54,M54)</f>
+        <v>7.3430332912776272E-2</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>153</v>
@@ -7460,7 +7472,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:36" hidden="1">
+    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>352</v>
       </c>
@@ -7497,9 +7509,9 @@
         <f>E55-2</f>
         <v>40</v>
       </c>
-      <c r="N55" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L55,M55)</f>
-        <v>#NAME?</v>
+      <c r="N55">
+        <f>_xlfn.T.DIST.2T(L55,M55)</f>
+        <v>8.7330891381298806E-2</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>153</v>
@@ -7556,7 +7568,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1">
+    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>473</v>
       </c>
@@ -7593,9 +7605,9 @@
         <f>E56-2</f>
         <v>48</v>
       </c>
-      <c r="N56" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L56,M56)</f>
-        <v>#NAME?</v>
+      <c r="N56">
+        <f>_xlfn.T.DIST.2T(L56,M56)</f>
+        <v>0.37566869626653177</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>24</v>
@@ -7652,7 +7664,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="57" spans="1:36" hidden="1">
+    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>252</v>
       </c>
@@ -7729,7 +7741,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="58" spans="1:36" hidden="1">
+    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>475</v>
       </c>
@@ -7806,7 +7818,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="59" spans="1:36" hidden="1">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>477</v>
       </c>
@@ -7884,7 +7896,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="60" spans="1:36" hidden="1">
+    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>313</v>
       </c>
@@ -7965,7 +7977,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>360</v>
       </c>
@@ -8027,7 +8039,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1">
+    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>363</v>
       </c>
@@ -8093,7 +8105,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>393</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1">
+    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>454</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="65" spans="1:32" hidden="1">
+    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>318</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="66" spans="1:32" hidden="1">
+    <row r="66" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>354</v>
       </c>
@@ -8415,7 +8427,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:32" hidden="1">
+    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>357</v>
       </c>
@@ -8496,7 +8508,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="1:32" hidden="1">
+    <row r="68" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>366</v>
       </c>
@@ -8558,7 +8570,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:32" hidden="1">
+    <row r="69" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>369</v>
       </c>
@@ -8624,7 +8636,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:32" hidden="1">
+    <row r="70" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>398</v>
       </c>
@@ -8705,7 +8717,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="1:32" hidden="1">
+    <row r="71" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>459</v>
       </c>
@@ -8786,7 +8798,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:32" hidden="1">
+    <row r="72" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>323</v>
       </c>
@@ -8868,7 +8880,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:32" hidden="1">
+    <row r="73" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>372</v>
       </c>
@@ -8931,7 +8943,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:32" hidden="1">
+    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>375</v>
       </c>
@@ -8997,7 +9009,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="75" spans="1:32" hidden="1">
+    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>403</v>
       </c>
@@ -9079,7 +9091,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="76" spans="1:32" hidden="1">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>464</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="77" spans="1:32" hidden="1">
+    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>378</v>
       </c>
@@ -9236,7 +9248,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="78" spans="1:32" hidden="1">
+    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>381</v>
       </c>
@@ -9315,7 +9327,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="79" spans="1:32" hidden="1">
+    <row r="79" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>408</v>
       </c>
@@ -9396,7 +9408,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="80" spans="1:32" hidden="1">
+    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>413</v>
       </c>
@@ -9477,7 +9489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="81" spans="1:32" hidden="1">
+    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>246</v>
       </c>
@@ -9559,7 +9571,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="82" spans="1:32" hidden="1">
+    <row r="82" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>384</v>
       </c>
@@ -9621,7 +9633,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="83" spans="1:32" hidden="1">
+    <row r="83" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>387</v>
       </c>
@@ -9687,7 +9699,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:32" hidden="1">
+    <row r="84" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>469</v>
       </c>
@@ -9769,7 +9781,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="85" spans="1:32" hidden="1">
+    <row r="85" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>314</v>
       </c>
@@ -9851,7 +9863,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="86" spans="1:32" hidden="1">
+    <row r="86" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>394</v>
       </c>
@@ -9933,7 +9945,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="87" spans="1:32" hidden="1">
+    <row r="87" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>455</v>
       </c>
@@ -10015,7 +10027,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="88" spans="1:32" hidden="1">
+    <row r="88" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>319</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="89" spans="1:32" hidden="1">
+    <row r="89" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>399</v>
       </c>
@@ -10178,7 +10190,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="1:32" hidden="1">
+    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>460</v>
       </c>
@@ -10259,7 +10271,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:32" hidden="1">
+    <row r="91" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>324</v>
       </c>
@@ -10341,7 +10353,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:32" hidden="1">
+    <row r="92" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>404</v>
       </c>
@@ -10423,7 +10435,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="93" spans="1:32" hidden="1">
+    <row r="93" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>465</v>
       </c>
@@ -10505,7 +10517,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="94" spans="1:32" hidden="1">
+    <row r="94" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>409</v>
       </c>
@@ -10586,7 +10598,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="95" spans="1:32" hidden="1">
+    <row r="95" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>414</v>
       </c>
@@ -10667,7 +10679,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:32" hidden="1">
+    <row r="96" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>247</v>
       </c>
@@ -10749,7 +10761,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="97" spans="1:32" hidden="1">
+    <row r="97" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>470</v>
       </c>
@@ -10831,7 +10843,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="98" spans="1:32" hidden="1">
+    <row r="98" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>315</v>
       </c>
@@ -10913,7 +10925,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="1:32" hidden="1">
+    <row r="99" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>361</v>
       </c>
@@ -10976,7 +10988,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="1:32" hidden="1">
+    <row r="100" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>364</v>
       </c>
@@ -11042,7 +11054,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="101" spans="1:32" hidden="1">
+    <row r="101" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>395</v>
       </c>
@@ -11124,7 +11136,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="102" spans="1:32" hidden="1">
+    <row r="102" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>456</v>
       </c>
@@ -11206,7 +11218,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:32" hidden="1">
+    <row r="103" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>320</v>
       </c>
@@ -11287,7 +11299,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="104" spans="1:32" hidden="1">
+    <row r="104" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>355</v>
       </c>
@@ -11365,7 +11377,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="105" spans="1:32" hidden="1">
+    <row r="105" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>358</v>
       </c>
@@ -11446,7 +11458,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="106" spans="1:32" hidden="1">
+    <row r="106" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>367</v>
       </c>
@@ -11509,7 +11521,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="107" spans="1:32" hidden="1">
+    <row r="107" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>370</v>
       </c>
@@ -11576,7 +11588,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="108" spans="1:32" hidden="1">
+    <row r="108" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>400</v>
       </c>
@@ -11658,7 +11670,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:32" hidden="1">
+    <row r="109" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>461</v>
       </c>
@@ -11740,7 +11752,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="110" spans="1:32" hidden="1">
+    <row r="110" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>325</v>
       </c>
@@ -11822,7 +11834,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="111" spans="1:32" hidden="1">
+    <row r="111" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>373</v>
       </c>
@@ -11885,7 +11897,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="112" spans="1:32" hidden="1">
+    <row r="112" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>376</v>
       </c>
@@ -11952,7 +11964,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="113" spans="1:32" hidden="1">
+    <row r="113" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>405</v>
       </c>
@@ -12034,7 +12046,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="114" spans="1:32" hidden="1">
+    <row r="114" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>466</v>
       </c>
@@ -12116,7 +12128,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="115" spans="1:32" hidden="1">
+    <row r="115" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>379</v>
       </c>
@@ -12191,7 +12203,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="116" spans="1:32" hidden="1">
+    <row r="116" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>382</v>
       </c>
@@ -12270,7 +12282,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="117" spans="1:32" hidden="1">
+    <row r="117" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>410</v>
       </c>
@@ -12351,7 +12363,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="118" spans="1:32" hidden="1">
+    <row r="118" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>415</v>
       </c>
@@ -12433,7 +12445,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="119" spans="1:32" hidden="1">
+    <row r="119" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>248</v>
       </c>
@@ -12515,7 +12527,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="120" spans="1:32" hidden="1">
+    <row r="120" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>385</v>
       </c>
@@ -12578,7 +12590,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="121" spans="1:32" hidden="1">
+    <row r="121" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>388</v>
       </c>
@@ -12645,7 +12657,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="122" spans="1:32" hidden="1">
+    <row r="122" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>471</v>
       </c>
@@ -12727,7 +12739,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:32" hidden="1">
+    <row r="123" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>298</v>
       </c>
@@ -12809,7 +12821,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="124" spans="1:32" hidden="1">
+    <row r="124" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>312</v>
       </c>
@@ -12890,7 +12902,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:32" hidden="1">
+    <row r="125" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>316</v>
       </c>
@@ -12971,7 +12983,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="126" spans="1:32" hidden="1">
+    <row r="126" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>359</v>
       </c>
@@ -13034,7 +13046,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="127" spans="1:32" hidden="1">
+    <row r="127" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>362</v>
       </c>
@@ -13100,7 +13112,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="128" spans="1:32" hidden="1">
+    <row r="128" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>391</v>
       </c>
@@ -13181,7 +13193,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="129" spans="1:33" hidden="1">
+    <row r="129" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>392</v>
       </c>
@@ -13262,7 +13274,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:33" hidden="1">
+    <row r="130" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>452</v>
       </c>
@@ -13344,7 +13356,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="1:33" hidden="1">
+    <row r="131" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>453</v>
       </c>
@@ -13426,7 +13438,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="132" spans="1:33" hidden="1">
+    <row r="132" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>432</v>
       </c>
@@ -13507,7 +13519,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:33" hidden="1">
+    <row r="133" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>156</v>
       </c>
@@ -13589,7 +13601,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="134" spans="1:33" hidden="1">
+    <row r="134" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>433</v>
       </c>
@@ -13670,10 +13682,10 @@
         <v>175</v>
       </c>
       <c r="AG134" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="135" spans="1:33" hidden="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>457</v>
       </c>
@@ -13754,7 +13766,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="136" spans="1:33" hidden="1">
+    <row r="136" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>458</v>
       </c>
@@ -13835,7 +13847,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="137" spans="1:33" hidden="1">
+    <row r="137" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>9</v>
       </c>
@@ -13916,7 +13928,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="138" spans="1:33" hidden="1">
+    <row r="138" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10</v>
       </c>
@@ -13997,7 +14009,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="139" spans="1:33" hidden="1">
+    <row r="139" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>396</v>
       </c>
@@ -14078,7 +14090,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="140" spans="1:33" hidden="1">
+    <row r="140" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>397</v>
       </c>
@@ -14159,7 +14171,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="141" spans="1:33" hidden="1">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>299</v>
       </c>
@@ -14240,7 +14252,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="142" spans="1:33" hidden="1">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>300</v>
       </c>
@@ -14321,7 +14333,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="143" spans="1:33" hidden="1">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>240</v>
       </c>
@@ -14402,7 +14414,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="144" spans="1:33" hidden="1">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>262</v>
       </c>
@@ -14483,7 +14495,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="145" spans="1:32" hidden="1">
+    <row r="145" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>301</v>
       </c>
@@ -14564,7 +14576,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="146" spans="1:32" hidden="1">
+    <row r="146" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>322</v>
       </c>
@@ -14645,7 +14657,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="147" spans="1:32" hidden="1">
+    <row r="147" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>326</v>
       </c>
@@ -14726,7 +14738,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="148" spans="1:32" hidden="1">
+    <row r="148" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>371</v>
       </c>
@@ -14789,7 +14801,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:32" hidden="1">
+    <row r="149" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>374</v>
       </c>
@@ -14855,7 +14867,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="150" spans="1:32" hidden="1">
+    <row r="150" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>401</v>
       </c>
@@ -14936,7 +14948,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="151" spans="1:32" hidden="1">
+    <row r="151" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>402</v>
       </c>
@@ -15017,7 +15029,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="152" spans="1:32" hidden="1">
+    <row r="152" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>462</v>
       </c>
@@ -15099,7 +15111,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="153" spans="1:32" hidden="1">
+    <row r="153" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>463</v>
       </c>
@@ -15181,7 +15193,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="154" spans="1:32" hidden="1">
+    <row r="154" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>377</v>
       </c>
@@ -15243,7 +15255,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:32" hidden="1">
+    <row r="155" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>380</v>
       </c>
@@ -15309,7 +15321,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="156" spans="1:32" hidden="1">
+    <row r="156" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>406</v>
       </c>
@@ -15390,7 +15402,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="157" spans="1:32" hidden="1">
+    <row r="157" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>407</v>
       </c>
@@ -15471,7 +15483,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="158" spans="1:32" hidden="1">
+    <row r="158" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>411</v>
       </c>
@@ -15552,7 +15564,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:32" hidden="1">
+    <row r="159" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>412</v>
       </c>
@@ -15634,7 +15646,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" spans="1:32" hidden="1">
+    <row r="160" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>244</v>
       </c>
@@ -15716,7 +15728,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="161" spans="1:32" hidden="1">
+    <row r="161" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>245</v>
       </c>
@@ -15798,7 +15810,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="162" spans="1:32" hidden="1">
+    <row r="162" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>383</v>
       </c>
@@ -15860,7 +15872,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="163" spans="1:32" hidden="1">
+    <row r="163" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>386</v>
       </c>
@@ -15927,7 +15939,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="164" spans="1:32" hidden="1">
+    <row r="164" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>467</v>
       </c>
@@ -16009,7 +16021,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="165" spans="1:32" hidden="1">
+    <row r="165" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>468</v>
       </c>
@@ -16091,7 +16103,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="166" spans="1:32" hidden="1">
+    <row r="166" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>302</v>
       </c>
@@ -16168,7 +16180,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="167" spans="1:32" hidden="1">
+    <row r="167" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>416</v>
       </c>
@@ -16245,7 +16257,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="168" spans="1:32" hidden="1">
+    <row r="168" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>474</v>
       </c>
@@ -16322,7 +16334,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="169" spans="1:32" hidden="1">
+    <row r="169" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>278</v>
       </c>
@@ -16400,7 +16412,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="170" spans="1:32" hidden="1">
+    <row r="170" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>476</v>
       </c>
@@ -16477,7 +16489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="171" spans="1:32" hidden="1">
+    <row r="171" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>250</v>
       </c>
@@ -16554,7 +16566,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="172" spans="1:32" hidden="1">
+    <row r="172" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>239</v>
       </c>
@@ -16635,7 +16647,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="173" spans="1:32" hidden="1">
+    <row r="173" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>241</v>
       </c>
@@ -16716,7 +16728,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="174" spans="1:32" hidden="1">
+    <row r="174" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>295</v>
       </c>
@@ -16797,7 +16809,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="175" spans="1:32" hidden="1">
+    <row r="175" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>243</v>
       </c>
@@ -16879,7 +16891,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="176" spans="1:32" hidden="1">
+    <row r="176" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>266</v>
       </c>
@@ -16961,7 +16973,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="177" spans="1:32" hidden="1">
+    <row r="177" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>268</v>
       </c>
@@ -17043,7 +17055,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="178" spans="1:32" hidden="1">
+    <row r="178" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>238</v>
       </c>
@@ -17124,7 +17136,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="179" spans="1:32" hidden="1">
+    <row r="179" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>306</v>
       </c>
@@ -17202,7 +17214,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="180" spans="1:32" hidden="1">
+    <row r="180" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>417</v>
       </c>
@@ -17283,7 +17295,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="181" spans="1:32" hidden="1">
+    <row r="181" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>420</v>
       </c>
@@ -17360,7 +17372,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="182" spans="1:32" hidden="1">
+    <row r="182" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>231</v>
       </c>
@@ -17437,7 +17449,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="183" spans="1:32" hidden="1">
+    <row r="183" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>263</v>
       </c>
@@ -17518,7 +17530,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="184" spans="1:32" hidden="1">
+    <row r="184" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>211</v>
       </c>
@@ -17599,7 +17611,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="185" spans="1:32" hidden="1">
+    <row r="185" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>212</v>
       </c>
@@ -17680,7 +17692,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="186" spans="1:32" hidden="1">
+    <row r="186" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>161</v>
       </c>
@@ -17761,7 +17773,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="187" spans="1:32" hidden="1">
+    <row r="187" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>162</v>
       </c>
@@ -17842,7 +17854,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="188" spans="1:32" hidden="1">
+    <row r="188" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>307</v>
       </c>
@@ -17923,7 +17935,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="189" spans="1:32" hidden="1">
+    <row r="189" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>194</v>
       </c>
@@ -18004,7 +18016,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="190" spans="1:32" hidden="1">
+    <row r="190" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>233</v>
       </c>
@@ -18085,7 +18097,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="191" spans="1:32" hidden="1">
+    <row r="191" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>242</v>
       </c>
@@ -18166,7 +18178,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="192" spans="1:32" hidden="1">
+    <row r="192" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>308</v>
       </c>
@@ -18247,7 +18259,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="193" spans="1:36" hidden="1">
+    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>265</v>
       </c>
@@ -18329,7 +18341,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="194" spans="1:36" hidden="1">
+    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>267</v>
       </c>
@@ -18410,7 +18422,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="195" spans="1:36" hidden="1">
+    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>309</v>
       </c>
@@ -18491,7 +18503,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="196" spans="1:36" hidden="1">
+    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>337</v>
       </c>
@@ -18572,7 +18584,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="197" spans="1:36" hidden="1">
+    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>310</v>
       </c>
@@ -18654,7 +18666,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:36" hidden="1">
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>418</v>
       </c>
@@ -18732,7 +18744,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="199" spans="1:36" hidden="1">
+    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>195</v>
       </c>
@@ -18813,7 +18825,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="200" spans="1:36" hidden="1">
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>353</v>
       </c>
@@ -18890,7 +18902,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="201" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>257</v>
       </c>
@@ -18934,9 +18946,9 @@
         <f>E201-2</f>
         <v>97</v>
       </c>
-      <c r="N201" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L201,M201)</f>
-        <v>#NAME?</v>
+      <c r="N201">
+        <f>_xlfn.T.DIST.2T(L201,M201)</f>
+        <v>2.270500403343121E-2</v>
       </c>
       <c r="O201" s="5" t="s">
         <v>280</v>
@@ -18987,22 +18999,22 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="AE201" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF201" t="s">
         <v>281</v>
       </c>
       <c r="AH201" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AI201">
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="AJ201" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="202" spans="1:36" ht="15.75" hidden="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="202" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>334</v>
       </c>
@@ -19079,7 +19091,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="203" spans="1:36" hidden="1">
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>356</v>
       </c>
@@ -19160,7 +19172,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="204" spans="1:36" hidden="1">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>449</v>
       </c>
@@ -19241,7 +19253,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="205" spans="1:36" hidden="1">
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>24</v>
       </c>
@@ -19318,7 +19330,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="206" spans="1:36" hidden="1">
+    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>27</v>
       </c>
@@ -19395,7 +19407,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="15.75" hidden="1">
+    <row r="207" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>28</v>
       </c>
@@ -19439,9 +19451,9 @@
         <f>E207-2</f>
         <v>146</v>
       </c>
-      <c r="N207" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L207,M207)</f>
-        <v>#NAME?</v>
+      <c r="N207">
+        <f>_xlfn.T.DIST.2T(L207,M207)</f>
+        <v>4.8145343607897795E-2</v>
       </c>
       <c r="O207" s="4" t="s">
         <v>691</v>
@@ -19492,19 +19504,19 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="AE207" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF207" t="s">
         <v>686</v>
       </c>
       <c r="AH207" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AI207">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" hidden="1">
+    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>29</v>
       </c>
@@ -19582,7 +19594,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="209" spans="1:32" hidden="1">
+    <row r="209" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>25</v>
       </c>
@@ -19659,7 +19671,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="210" spans="1:32" hidden="1">
+    <row r="210" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>26</v>
       </c>
@@ -19737,7 +19749,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="211" spans="1:32" hidden="1">
+    <row r="211" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>30</v>
       </c>
@@ -19815,7 +19827,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="212" spans="1:32" hidden="1">
+    <row r="212" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>198</v>
       </c>
@@ -19896,7 +19908,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="213" spans="1:32" hidden="1">
+    <row r="213" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>199</v>
       </c>
@@ -19977,7 +19989,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:32" hidden="1">
+    <row r="214" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>200</v>
       </c>
@@ -20058,7 +20070,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="215" spans="1:32" hidden="1">
+    <row r="215" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>340</v>
       </c>
@@ -20136,7 +20148,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="216" spans="1:32" hidden="1">
+    <row r="216" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>304</v>
       </c>
@@ -20214,7 +20226,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="217" spans="1:32" hidden="1">
+    <row r="217" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>44</v>
       </c>
@@ -20295,7 +20307,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="218" spans="1:32" hidden="1">
+    <row r="218" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>185</v>
       </c>
@@ -20376,7 +20388,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="219" spans="1:32" hidden="1">
+    <row r="219" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>342</v>
       </c>
@@ -20454,7 +20466,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="220" spans="1:32" hidden="1">
+    <row r="220" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>186</v>
       </c>
@@ -20535,7 +20547,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="221" spans="1:32" hidden="1">
+    <row r="221" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>35</v>
       </c>
@@ -20616,7 +20628,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="222" spans="1:32" hidden="1">
+    <row r="222" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>36</v>
       </c>
@@ -20697,7 +20709,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="223" spans="1:32" hidden="1">
+    <row r="223" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>142</v>
       </c>
@@ -20774,7 +20786,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="224" spans="1:32" hidden="1">
+    <row r="224" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>143</v>
       </c>
@@ -20851,7 +20863,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="225" spans="1:36" hidden="1">
+    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>221</v>
       </c>
@@ -20932,7 +20944,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="226" spans="1:36" hidden="1">
+    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>426</v>
       </c>
@@ -21013,7 +21025,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="227" spans="1:36" hidden="1">
+    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>15</v>
       </c>
@@ -21090,7 +21102,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="15.75" hidden="1">
+    <row r="228" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>31</v>
       </c>
@@ -21173,10 +21185,10 @@
         <v>1</v>
       </c>
       <c r="AJ228" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="229" spans="1:36" hidden="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>65</v>
       </c>
@@ -21253,7 +21265,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="230" spans="1:36" hidden="1">
+    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>84</v>
       </c>
@@ -21330,7 +21342,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="231" spans="1:36" hidden="1">
+    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>93</v>
       </c>
@@ -21407,7 +21419,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="232" spans="1:36" hidden="1">
+    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>96</v>
       </c>
@@ -21484,7 +21496,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="233" spans="1:36" hidden="1">
+    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>97</v>
       </c>
@@ -21561,7 +21573,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="234" spans="1:36" hidden="1">
+    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>104</v>
       </c>
@@ -21638,7 +21650,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="235" spans="1:36" hidden="1">
+    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>107</v>
       </c>
@@ -21715,7 +21727,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="236" spans="1:36" hidden="1">
+    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>119</v>
       </c>
@@ -21792,7 +21804,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="237" spans="1:36">
+    <row r="237" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>125</v>
       </c>
@@ -21805,7 +21817,7 @@
       <c r="D237" t="s">
         <v>724</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="9">
         <v>50</v>
       </c>
       <c r="F237">
@@ -21868,8 +21880,11 @@
       <c r="AF237" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="238" spans="1:36" hidden="1">
+      <c r="AJ237" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>167</v>
       </c>
@@ -21946,7 +21961,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:36" hidden="1">
+    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>235</v>
       </c>
@@ -22027,7 +22042,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="240" spans="1:36" hidden="1">
+    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>296</v>
       </c>
@@ -22108,7 +22123,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="241" spans="1:36" hidden="1">
+    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>331</v>
       </c>
@@ -22185,7 +22200,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="242" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>7</v>
       </c>
@@ -22212,27 +22227,27 @@
         <v>0.24955467004742601</v>
       </c>
       <c r="I242">
-        <f>0.5*LN((1+G242)/(1-G242))</f>
+        <f t="shared" ref="I242:I253" si="0">0.5*LN((1+G242)/(1-G242))</f>
         <v>6.8200544357650175E-2</v>
       </c>
       <c r="J242" s="3">
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="K242">
-        <f>1/SQRT(E242-3)</f>
+        <f t="shared" ref="K242:K257" si="1">1/SQRT(E242-3)</f>
         <v>7.4329414624716636E-2</v>
       </c>
       <c r="L242">
-        <f>I242/K242</f>
+        <f t="shared" ref="L242:L248" si="2">I242/K242</f>
         <v>0.91754448359359964</v>
       </c>
       <c r="M242">
-        <f>E242-2</f>
+        <f t="shared" ref="M242:M257" si="3">E242-2</f>
         <v>182</v>
       </c>
-      <c r="N242" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L242,M242)</f>
-        <v>#NAME?</v>
+      <c r="N242">
+        <f t="shared" ref="N242:N248" si="4">_xlfn.T.DIST.2T(L242,M242)</f>
+        <v>0.3600716881946292</v>
       </c>
       <c r="O242" s="4" t="s">
         <v>747</v>
@@ -22283,7 +22298,7 @@
         <v>0.1915</v>
       </c>
       <c r="AE242" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF242" t="s">
         <v>735</v>
@@ -22292,16 +22307,16 @@
         <v>1</v>
       </c>
       <c r="AH242" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AI242">
         <v>1.78E-2</v>
       </c>
       <c r="AJ242" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="243" spans="1:36" ht="15.75" hidden="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="243" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8</v>
       </c>
@@ -22327,27 +22342,27 @@
         <v>0.190574089764425</v>
       </c>
       <c r="I243">
-        <f>0.5*LN((1+G243)/(1-G243))</f>
+        <f t="shared" si="0"/>
         <v>0.18715497016418453</v>
       </c>
       <c r="J243" s="1">
         <v>7.0534561585859801E-2</v>
       </c>
       <c r="K243">
-        <f>1/SQRT(E243-3)</f>
+        <f t="shared" si="1"/>
         <v>7.0534561585859828E-2</v>
       </c>
       <c r="L243">
-        <f>I243/K243</f>
+        <f t="shared" si="2"/>
         <v>2.6533796475982316</v>
       </c>
       <c r="M243">
-        <f>E243-2</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="N243" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L243,M243)</f>
-        <v>#NAME?</v>
+      <c r="N243">
+        <f t="shared" si="4"/>
+        <v>8.6029572903836022E-3</v>
       </c>
       <c r="O243" s="4" t="s">
         <v>747</v>
@@ -22407,16 +22422,16 @@
         <v>0</v>
       </c>
       <c r="AH243" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI243">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ243" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="244" spans="1:36" ht="15.75" hidden="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="244" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>16</v>
       </c>
@@ -22442,27 +22457,27 @@
         <v>0.24912928181115701</v>
       </c>
       <c r="I244">
-        <f>0.5*LN((1+G244)/(1-G244))</f>
+        <f t="shared" si="0"/>
         <v>0.24668500792427897</v>
       </c>
       <c r="J244">
         <v>0.1</v>
       </c>
       <c r="K244">
-        <f>1/SQRT(E244-3)</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="L244">
-        <f>I244/K244</f>
+        <f t="shared" si="2"/>
         <v>2.4668500792427897</v>
       </c>
       <c r="M244">
-        <f>E244-2</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="N244" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L244,M244)</f>
-        <v>#NAME?</v>
+      <c r="N244">
+        <f t="shared" si="4"/>
+        <v>1.5313527057636118E-2</v>
       </c>
       <c r="O244" s="4" t="s">
         <v>670</v>
@@ -22519,16 +22534,16 @@
         <v>735</v>
       </c>
       <c r="AH244" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AI244">
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="AJ244" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="245" spans="1:36" ht="15.75" hidden="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="245" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>22</v>
       </c>
@@ -22554,27 +22569,27 @@
         <v>0.15984766512078499</v>
       </c>
       <c r="I245">
-        <f>0.5*LN((1+G245)/(1-G245))</f>
+        <f t="shared" si="0"/>
         <v>0.15697680915297069</v>
       </c>
       <c r="J245" s="1">
         <v>7.1981575074869505E-2</v>
       </c>
       <c r="K245">
-        <f>1/SQRT(E245-3)</f>
+        <f t="shared" si="1"/>
         <v>7.198157507486945E-2</v>
       </c>
       <c r="L245">
-        <f>I245/K245</f>
+        <f t="shared" si="2"/>
         <v>2.1807915288001967</v>
       </c>
       <c r="M245">
-        <f>E245-2</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
-      <c r="N245" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L245,M245)</f>
-        <v>#NAME?</v>
+      <c r="N245">
+        <f t="shared" si="4"/>
+        <v>3.0401861542781624E-2</v>
       </c>
       <c r="O245" s="4" t="s">
         <v>675</v>
@@ -22631,7 +22646,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="246" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>37</v>
       </c>
@@ -22657,27 +22672,27 @@
         <v>0.10842286736361</v>
       </c>
       <c r="I246">
-        <f>0.5*LN((1+G246)/(1-G246))</f>
+        <f t="shared" si="0"/>
         <v>9.024418785614681E-2</v>
       </c>
       <c r="J246" s="1">
         <v>5.3376051268362402E-2</v>
       </c>
       <c r="K246">
-        <f>1/SQRT(E246-3)</f>
+        <f t="shared" si="1"/>
         <v>5.3376051268362382E-2</v>
       </c>
       <c r="L246">
-        <f>I246/K246</f>
+        <f t="shared" si="2"/>
         <v>1.6907243175861775</v>
       </c>
       <c r="M246">
-        <f>E246-2</f>
+        <f t="shared" si="3"/>
         <v>352</v>
       </c>
-      <c r="N246" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L246,M246)</f>
-        <v>#NAME?</v>
+      <c r="N246">
+        <f t="shared" si="4"/>
+        <v>9.1774680190060617E-2</v>
       </c>
       <c r="O246" s="5" t="s">
         <v>603</v>
@@ -22740,7 +22755,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1">
+    <row r="247" spans="1:36" ht="17.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>40</v>
       </c>
@@ -22766,27 +22781,27 @@
         <v>0.17413913148267501</v>
       </c>
       <c r="I247">
-        <f>0.5*LN((1+G247)/(1-G247))</f>
+        <f t="shared" si="0"/>
         <v>0.12058102840844412</v>
       </c>
       <c r="J247">
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="K247">
-        <f>1/SQRT(E247-3)</f>
+        <f t="shared" si="1"/>
         <v>7.9555728417572996E-2</v>
       </c>
       <c r="L247">
-        <f>I247/K247</f>
+        <f t="shared" si="2"/>
         <v>1.5156800246430662</v>
       </c>
       <c r="M247">
-        <f>E247-2</f>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="N247" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L247,M247)</f>
-        <v>#NAME?</v>
+      <c r="N247">
+        <f t="shared" si="4"/>
+        <v>0.13158580148955865</v>
       </c>
       <c r="O247" s="5" t="s">
         <v>603</v>
@@ -22849,7 +22864,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="15.75" hidden="1">
+    <row r="248" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>66</v>
       </c>
@@ -22875,27 +22890,27 @@
         <v>0.27664810875740697</v>
       </c>
       <c r="I248">
-        <f>0.5*LN((1+G248)/(1-G248))</f>
+        <f t="shared" si="0"/>
         <v>0.27470781051792986</v>
       </c>
       <c r="J248">
         <v>0.107211253483779</v>
       </c>
       <c r="K248">
-        <f>1/SQRT(E248-3)</f>
+        <f t="shared" si="1"/>
         <v>0.10721125348377948</v>
       </c>
       <c r="L248">
-        <f>I248/K248</f>
+        <f t="shared" si="2"/>
         <v>2.5623038775448301</v>
       </c>
       <c r="M248">
-        <f>E248-2</f>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="N248" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L248,M248)</f>
-        <v>#NAME?</v>
+      <c r="N248">
+        <f t="shared" si="4"/>
+        <v>1.2098558051902382E-2</v>
       </c>
       <c r="O248" s="4" t="s">
         <v>646</v>
@@ -22958,7 +22973,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="15.75" hidden="1">
+    <row r="249" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>79</v>
       </c>
@@ -22978,31 +22993,31 @@
         <v>0.37919999999999998</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H249">
         <v>0.39912496552020998</v>
       </c>
       <c r="I249" t="e">
-        <f>0.5*LN((1+G249)/(1-G249))</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="J249">
         <v>0.242535625036333</v>
       </c>
       <c r="K249">
-        <f>1/SQRT(E249-3)</f>
+        <f t="shared" si="1"/>
         <v>0.24253562503633297</v>
       </c>
       <c r="L249" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M249">
-        <f>E249-2</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="N249" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O249" s="4" t="s">
         <v>578</v>
@@ -23065,7 +23080,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="15.75" hidden="1">
+    <row r="250" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>80</v>
       </c>
@@ -23085,31 +23100,31 @@
         <v>0.56659999999999999</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H250">
         <v>0.64250092791544</v>
       </c>
       <c r="I250" t="e">
-        <f>0.5*LN((1+G250)/(1-G250))</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="J250">
         <v>0.25</v>
       </c>
       <c r="K250">
-        <f>1/SQRT(E250-3)</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="L250" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M250">
-        <f>E250-2</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="N250" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O250" s="4" t="s">
         <v>578</v>
@@ -23172,12 +23187,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="15.75" hidden="1">
+    <row r="251" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>79</v>
       </c>
       <c r="B251" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C251" t="s">
         <v>737</v>
@@ -23189,20 +23204,20 @@
         <v>39</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G251" s="4">
         <v>0.48509999999999998</v>
       </c>
       <c r="I251">
-        <f>0.5*LN((1+G251)/(1-G251))</f>
+        <f t="shared" si="0"/>
         <v>0.52963234099240197</v>
       </c>
       <c r="J251">
         <v>0.16669999999999999</v>
       </c>
       <c r="K251">
-        <f>1/SQRT(E251-3)</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="L251">
@@ -23210,12 +23225,12 @@
         <v>3.1777940459544118</v>
       </c>
       <c r="M251">
-        <f>E251-2</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="N251" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L251,M251)</f>
-        <v>#NAME?</v>
+      <c r="N251">
+        <f>_xlfn.T.DIST.2T(L251,M251)</f>
+        <v>2.9934587212867682E-3</v>
       </c>
       <c r="O251" s="4" t="s">
         <v>578</v>
@@ -23272,16 +23287,16 @@
         <v>1</v>
       </c>
       <c r="AH251" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AI251">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="AJ251" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="252" spans="1:36" ht="15.75" hidden="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="252" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>85</v>
       </c>
@@ -23307,14 +23322,14 @@
         <v>0.39655798997060099</v>
       </c>
       <c r="I252">
-        <f>0.5*LN((1+G252)/(1-G252))</f>
+        <f t="shared" si="0"/>
         <v>0.39772417941721228</v>
       </c>
       <c r="J252">
         <v>0.115470053837925</v>
       </c>
       <c r="K252">
-        <f>1/SQRT(E252-3)</f>
+        <f t="shared" si="1"/>
         <v>0.11470786693528087</v>
       </c>
       <c r="L252">
@@ -23322,12 +23337,12 @@
         <v>3.4672790109645359</v>
       </c>
       <c r="M252">
-        <f>E252-2</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="N252" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L252,M252)</f>
-        <v>#NAME?</v>
+      <c r="N252">
+        <f>_xlfn.T.DIST.2T(L252,M252)</f>
+        <v>8.63459037561278E-4</v>
       </c>
       <c r="O252" s="7" t="s">
         <v>589</v>
@@ -23378,7 +23393,7 @@
         <v>0.377</v>
       </c>
       <c r="AE252" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF252" t="s">
         <v>735</v>
@@ -23387,16 +23402,16 @@
         <v>1</v>
       </c>
       <c r="AH252" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AI252">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AJ252" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="253" spans="1:36" ht="15.75" hidden="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="253" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>94</v>
       </c>
@@ -23422,14 +23437,14 @@
         <v>0.21840781899612</v>
       </c>
       <c r="I253">
-        <f>0.5*LN((1+G253)/(1-G253))</f>
+        <f t="shared" si="0"/>
         <v>7.6549170686205217E-2</v>
       </c>
       <c r="J253" s="1">
         <v>9.4491118252306799E-2</v>
       </c>
       <c r="K253">
-        <f>1/SQRT(E253-3)</f>
+        <f t="shared" si="1"/>
         <v>9.284766908852593E-2</v>
       </c>
       <c r="L253">
@@ -23437,12 +23452,12 @@
         <v>0.82445979998936914</v>
       </c>
       <c r="M253">
-        <f>E253-2</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="N253" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L253,M253)</f>
-        <v>#NAME?</v>
+      <c r="N253">
+        <f>_xlfn.T.DIST.2T(L253,M253)</f>
+        <v>0.4113559874910544</v>
       </c>
       <c r="O253" s="6" t="s">
         <v>535</v>
@@ -23499,16 +23514,16 @@
         <v>735</v>
       </c>
       <c r="AH253" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AI253">
         <v>2.6499999999999999E-2</v>
       </c>
       <c r="AJ253" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="254" spans="1:36" ht="15.75" hidden="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="254" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>98</v>
       </c>
@@ -23528,30 +23543,30 @@
         <v>0.42859999999999998</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H254" s="3">
         <v>0.45818036646209997</v>
       </c>
       <c r="I254" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J254" s="3">
         <v>0.145864991497895</v>
       </c>
       <c r="K254">
-        <f>1/SQRT(E254-3)</f>
+        <f t="shared" si="1"/>
         <v>0.14586499149789456</v>
       </c>
       <c r="L254" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M254">
-        <f>E254-2</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="N254" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O254" s="3" t="s">
         <v>538</v>
@@ -23602,13 +23617,13 @@
         <v>0.42859999999999998</v>
       </c>
       <c r="AE254" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF254" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="15.75" hidden="1">
+    <row r="255" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>99</v>
       </c>
@@ -23628,30 +23643,30 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H255" s="14">
         <v>2.2003550364416199E-2</v>
       </c>
       <c r="I255" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J255" s="3">
         <v>0.145864991497895</v>
       </c>
       <c r="K255">
-        <f>1/SQRT(E255-3)</f>
+        <f t="shared" si="1"/>
         <v>0.14586499149789456</v>
       </c>
       <c r="L255" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M255">
-        <f>E255-2</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="N255" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O255" s="3" t="s">
         <v>538</v>
@@ -23702,18 +23717,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="AE255" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF255" t="s">
         <v>735</v>
       </c>
       <c r="AJ255" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="256" spans="1:36" ht="15.75" hidden="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="256" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C256" t="s">
         <v>737</v>
@@ -23725,7 +23740,7 @@
         <v>100</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G256">
         <v>0.21</v>
@@ -23739,7 +23754,7 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="K256">
-        <f>1/SQRT(E256-3)</f>
+        <f t="shared" si="1"/>
         <v>0.10153461651336192</v>
       </c>
       <c r="L256">
@@ -23747,12 +23762,12 @@
         <v>2.0994942797347003</v>
       </c>
       <c r="M256">
-        <f>E256-2</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="N256" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L256,M256)</f>
-        <v>#NAME?</v>
+      <c r="N256">
+        <f>_xlfn.T.DIST.2T(L256,M256)</f>
+        <v>3.8342545851744028E-2</v>
       </c>
       <c r="O256" s="4" t="s">
         <v>538</v>
@@ -23803,19 +23818,19 @@
         <v>0.21</v>
       </c>
       <c r="AE256" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF256" t="s">
         <v>735</v>
       </c>
       <c r="AH256" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AJ256" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="257" spans="1:36" ht="15.75" hidden="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>114</v>
       </c>
@@ -23848,7 +23863,7 @@
         <v>0.117041147196131</v>
       </c>
       <c r="K257">
-        <f>1/SQRT(E257-3)</f>
+        <f t="shared" si="1"/>
         <v>0.11704114719613057</v>
       </c>
       <c r="L257">
@@ -23856,12 +23871,12 @@
         <v>2.2736312249889821</v>
       </c>
       <c r="M257">
-        <f>E257-2</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="N257" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L257,M257)</f>
-        <v>#NAME?</v>
+      <c r="N257">
+        <f>_xlfn.T.DIST.2T(L257,M257)</f>
+        <v>2.5889642430418944E-2</v>
       </c>
       <c r="O257" s="4" t="s">
         <v>560</v>
@@ -23924,7 +23939,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="258" spans="1:36">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>126</v>
       </c>
@@ -24004,8 +24019,11 @@
       <c r="AF258" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="259" spans="1:36" ht="15.75" hidden="1">
+      <c r="AJ258" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="259" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>136</v>
       </c>
@@ -24049,12 +24067,12 @@
         <f>E259-2</f>
         <v>62</v>
       </c>
-      <c r="N259" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L259,M259)</f>
-        <v>#NAME?</v>
+      <c r="N259">
+        <f>_xlfn.T.DIST.2T(L259,M259)</f>
+        <v>0.14666824815021431</v>
       </c>
       <c r="O259" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P259" t="s">
         <v>730</v>
@@ -24108,16 +24126,16 @@
         <v>735</v>
       </c>
       <c r="AH259" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AI259">
         <v>2.0799999999999999E-2</v>
       </c>
       <c r="AJ259" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="260" spans="1:36" ht="15.75" hidden="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="260" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>197</v>
       </c>
@@ -24161,9 +24179,9 @@
         <f>E260-2</f>
         <v>159</v>
       </c>
-      <c r="N260" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L260,M260)</f>
-        <v>#NAME?</v>
+      <c r="N260">
+        <f>_xlfn.T.DIST.2T(L260,M260)</f>
+        <v>3.6392492012338961E-3</v>
       </c>
       <c r="O260" s="12" t="s">
         <v>413</v>
@@ -24220,16 +24238,16 @@
         <v>735</v>
       </c>
       <c r="AH260" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AI260">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="AJ260" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="261" spans="1:36" ht="15.75" hidden="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="261" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>234</v>
       </c>
@@ -24270,9 +24288,9 @@
         <f>E261-2</f>
         <v>58</v>
       </c>
-      <c r="N261" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L261,M261)</f>
-        <v>#NAME?</v>
+      <c r="N261">
+        <f>_xlfn.T.DIST.2T(L261,M261)</f>
+        <v>1.986901602166264E-2</v>
       </c>
       <c r="O261" s="8" t="s">
         <v>349</v>
@@ -24329,7 +24347,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="15.75" hidden="1">
+    <row r="262" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>345</v>
       </c>
@@ -24373,9 +24391,9 @@
         <f>E262-2</f>
         <v>46</v>
       </c>
-      <c r="N262" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L262,M262)</f>
-        <v>#NAME?</v>
+      <c r="N262">
+        <f>_xlfn.T.DIST.2T(L262,M262)</f>
+        <v>3.5419366530367202E-2</v>
       </c>
       <c r="O262" s="6" t="s">
         <v>184</v>
@@ -24426,19 +24444,19 @@
         <v>0.31230000000000002</v>
       </c>
       <c r="AE262" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF262" t="s">
         <v>735</v>
       </c>
       <c r="AH262" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AI262">
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:36" ht="15.75" hidden="1">
+    <row r="263" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>350</v>
       </c>
@@ -24479,9 +24497,9 @@
         <f>E263-2</f>
         <v>29</v>
       </c>
-      <c r="N263" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L263,M263)</f>
-        <v>#NAME?</v>
+      <c r="N263">
+        <f>_xlfn.T.DIST.2T(L263,M263)</f>
+        <v>0.10397114558425477</v>
       </c>
       <c r="O263" s="6" t="s">
         <v>151</v>
@@ -24538,7 +24556,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="264" spans="1:36" hidden="1">
+    <row r="264" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>11</v>
       </c>
@@ -24619,7 +24637,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="265" spans="1:36" hidden="1">
+    <row r="265" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>17</v>
       </c>
@@ -24700,7 +24718,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:36" hidden="1">
+    <row r="266" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>23</v>
       </c>
@@ -24781,7 +24799,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="267" spans="1:36" hidden="1">
+    <row r="267" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>81</v>
       </c>
@@ -24862,7 +24880,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="268" spans="1:36" hidden="1">
+    <row r="268" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>82</v>
       </c>
@@ -24943,7 +24961,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="269" spans="1:36" hidden="1">
+    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>86</v>
       </c>
@@ -25020,7 +25038,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="270" spans="1:36" hidden="1">
+    <row r="270" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>105</v>
       </c>
@@ -25097,7 +25115,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="271" spans="1:36" hidden="1">
+    <row r="271" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>108</v>
       </c>
@@ -25178,7 +25196,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="272" spans="1:36" hidden="1">
+    <row r="272" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>109</v>
       </c>
@@ -25255,7 +25273,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="273" spans="1:36">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>128</v>
       </c>
@@ -25332,7 +25350,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="274" spans="1:36" hidden="1">
+    <row r="274" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>137</v>
       </c>
@@ -25359,7 +25377,7 @@
         <v>0.128036879932896</v>
       </c>
       <c r="O274" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="P274" t="s">
         <v>730</v>
@@ -25410,7 +25428,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="275" spans="1:36" hidden="1">
+    <row r="275" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>157</v>
       </c>
@@ -25491,7 +25509,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="276" spans="1:36" hidden="1">
+    <row r="276" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>213</v>
       </c>
@@ -25568,7 +25586,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="277" spans="1:36" hidden="1">
+    <row r="277" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>236</v>
       </c>
@@ -25650,7 +25668,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="278" spans="1:36" hidden="1">
+    <row r="278" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>256</v>
       </c>
@@ -25727,7 +25745,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="279" spans="1:36" hidden="1">
+    <row r="279" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>260</v>
       </c>
@@ -25808,7 +25826,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="280" spans="1:36" hidden="1">
+    <row r="280" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>264</v>
       </c>
@@ -25889,7 +25907,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="281" spans="1:36" hidden="1">
+    <row r="281" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>297</v>
       </c>
@@ -25970,7 +25988,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="282" spans="1:36" hidden="1">
+    <row r="282" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>329</v>
       </c>
@@ -26047,7 +26065,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="283" spans="1:36" hidden="1">
+    <row r="283" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>425</v>
       </c>
@@ -26128,7 +26146,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="284" spans="1:36" hidden="1">
+    <row r="284" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>135</v>
       </c>
@@ -26212,10 +26230,10 @@
         <v>735</v>
       </c>
       <c r="AJ284" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="285" spans="1:36" hidden="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="285" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>14</v>
       </c>
@@ -26296,7 +26314,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="286" spans="1:36" hidden="1">
+    <row r="286" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>87</v>
       </c>
@@ -26373,7 +26391,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="287" spans="1:36" hidden="1">
+    <row r="287" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>102</v>
       </c>
@@ -26451,7 +26469,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="288" spans="1:36" hidden="1">
+    <row r="288" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>103</v>
       </c>
@@ -26528,7 +26546,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="289" spans="1:32" hidden="1">
+    <row r="289" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>106</v>
       </c>
@@ -26605,7 +26623,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="290" spans="1:32" hidden="1">
+    <row r="290" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>110</v>
       </c>
@@ -26686,7 +26704,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="291" spans="1:32" hidden="1">
+    <row r="291" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>111</v>
       </c>
@@ -26764,7 +26782,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="292" spans="1:32" hidden="1">
+    <row r="292" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>120</v>
       </c>
@@ -26841,7 +26859,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="293" spans="1:32" hidden="1">
+    <row r="293" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>168</v>
       </c>
@@ -26918,7 +26936,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="294" spans="1:32" hidden="1">
+    <row r="294" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>333</v>
       </c>
@@ -26995,7 +27013,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="295" spans="1:32" hidden="1">
+    <row r="295" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>83</v>
       </c>
@@ -27077,7 +27095,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="296" spans="1:32" hidden="1">
+    <row r="296" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>95</v>
       </c>
@@ -27158,7 +27176,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="297" spans="1:32" hidden="1">
+    <row r="297" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>134</v>
       </c>
@@ -27239,7 +27257,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="298" spans="1:32" hidden="1">
+    <row r="298" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>201</v>
       </c>
@@ -27316,7 +27334,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="299" spans="1:32" hidden="1">
+    <row r="299" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>46</v>
       </c>
@@ -27397,7 +27415,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="300" spans="1:32" hidden="1">
+    <row r="300" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>55</v>
       </c>
@@ -27478,7 +27496,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="301" spans="1:32" hidden="1">
+    <row r="301" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>61</v>
       </c>
@@ -27559,7 +27577,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="302" spans="1:32" hidden="1">
+    <row r="302" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>48</v>
       </c>
@@ -27640,7 +27658,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="303" spans="1:32" hidden="1">
+    <row r="303" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>57</v>
       </c>
@@ -27721,7 +27739,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="304" spans="1:32" hidden="1">
+    <row r="304" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>63</v>
       </c>
@@ -27803,7 +27821,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="305" spans="1:32" hidden="1">
+    <row r="305" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>49</v>
       </c>
@@ -27884,7 +27902,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="306" spans="1:32" hidden="1">
+    <row r="306" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>58</v>
       </c>
@@ -27965,7 +27983,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="307" spans="1:32" hidden="1">
+    <row r="307" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>64</v>
       </c>
@@ -28046,7 +28064,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="308" spans="1:32" hidden="1">
+    <row r="308" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>32</v>
       </c>
@@ -28127,7 +28145,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="309" spans="1:32" hidden="1">
+    <row r="309" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>33</v>
       </c>
@@ -28208,7 +28226,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="310" spans="1:32" hidden="1">
+    <row r="310" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>34</v>
       </c>
@@ -28285,7 +28303,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="311" spans="1:32" hidden="1">
+    <row r="311" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>112</v>
       </c>
@@ -28366,7 +28384,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="312" spans="1:32" hidden="1">
+    <row r="312" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>204</v>
       </c>
@@ -28447,7 +28465,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="313" spans="1:32" hidden="1">
+    <row r="313" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>209</v>
       </c>
@@ -28528,7 +28546,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="314" spans="1:32" hidden="1">
+    <row r="314" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>210</v>
       </c>
@@ -28609,7 +28627,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="315" spans="1:32" hidden="1">
+    <row r="315" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>365</v>
       </c>
@@ -28669,7 +28687,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="316" spans="1:32" hidden="1">
+    <row r="316" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>271</v>
       </c>
@@ -28750,7 +28768,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="317" spans="1:32" hidden="1">
+    <row r="317" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>368</v>
       </c>
@@ -28814,7 +28832,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="318" spans="1:32" hidden="1">
+    <row r="318" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>442</v>
       </c>
@@ -28895,7 +28913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="319" spans="1:32" hidden="1">
+    <row r="319" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>225</v>
       </c>
@@ -28976,7 +28994,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="320" spans="1:32" hidden="1">
+    <row r="320" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>19</v>
       </c>
@@ -29057,7 +29075,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="321" spans="1:32" hidden="1">
+    <row r="321" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>284</v>
       </c>
@@ -29138,7 +29156,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="322" spans="1:32" hidden="1">
+    <row r="322" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>443</v>
       </c>
@@ -29219,7 +29237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="323" spans="1:32" hidden="1">
+    <row r="323" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>294</v>
       </c>
@@ -29300,7 +29318,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="324" spans="1:32" hidden="1">
+    <row r="324" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>249</v>
       </c>
@@ -29381,7 +29399,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="325" spans="1:32" hidden="1">
+    <row r="325" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>113</v>
       </c>
@@ -29462,7 +29480,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="326" spans="1:32" hidden="1">
+    <row r="326" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>41</v>
       </c>
@@ -29543,7 +29561,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="327" spans="1:32" hidden="1">
+    <row r="327" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>47</v>
       </c>
@@ -29624,7 +29642,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="328" spans="1:32" hidden="1">
+    <row r="328" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>317</v>
       </c>
@@ -29705,7 +29723,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="329" spans="1:32" hidden="1">
+    <row r="329" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>321</v>
       </c>
@@ -29786,7 +29804,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="330" spans="1:32" hidden="1">
+    <row r="330" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>436</v>
       </c>
@@ -29867,7 +29885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:32" hidden="1">
+    <row r="331" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>75</v>
       </c>
@@ -29949,7 +29967,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="332" spans="1:32" hidden="1">
+    <row r="332" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>270</v>
       </c>
@@ -30030,7 +30048,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="333" spans="1:32" hidden="1">
+    <row r="333" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>45</v>
       </c>
@@ -30107,7 +30125,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="334" spans="1:32" hidden="1">
+    <row r="334" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>38</v>
       </c>
@@ -30184,7 +30202,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="335" spans="1:32" hidden="1">
+    <row r="335" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>39</v>
       </c>
@@ -30261,7 +30279,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="336" spans="1:32" hidden="1">
+    <row r="336" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>139</v>
       </c>
@@ -30343,7 +30361,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="337" spans="1:32" hidden="1">
+    <row r="337" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>448</v>
       </c>
@@ -30424,7 +30442,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="338" spans="1:32" hidden="1">
+    <row r="338" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>20</v>
       </c>
@@ -30501,7 +30519,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="339" spans="1:32" hidden="1">
+    <row r="339" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>138</v>
       </c>
@@ -30582,7 +30600,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="340" spans="1:32" hidden="1">
+    <row r="340" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>282</v>
       </c>
@@ -30663,7 +30681,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="341" spans="1:32">
+    <row r="341" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>127</v>
       </c>
@@ -30740,7 +30758,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="342" spans="1:32" hidden="1">
+    <row r="342" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>148</v>
       </c>
@@ -30821,7 +30839,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="343" spans="1:32" hidden="1">
+    <row r="343" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>439</v>
       </c>
@@ -30898,7 +30916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="344" spans="1:32">
+    <row r="344" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>133</v>
       </c>
@@ -30974,8 +30992,11 @@
       <c r="AF344" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="345" spans="1:32" hidden="1">
+      <c r="AJ344" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="345" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>288</v>
       </c>
@@ -31056,7 +31077,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="346" spans="1:32" hidden="1">
+    <row r="346" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>166</v>
       </c>
@@ -31137,7 +31158,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="347" spans="1:32" hidden="1">
+    <row r="347" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>196</v>
       </c>
@@ -31218,7 +31239,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="348" spans="1:32" hidden="1">
+    <row r="348" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>421</v>
       </c>
@@ -31299,7 +31320,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="349" spans="1:32" hidden="1">
+    <row r="349" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>422</v>
       </c>
@@ -31380,7 +31401,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="350" spans="1:32" hidden="1">
+    <row r="350" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>149</v>
       </c>
@@ -31461,7 +31482,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="351" spans="1:32" hidden="1">
+    <row r="351" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>42</v>
       </c>
@@ -31542,7 +31563,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="352" spans="1:32" hidden="1">
+    <row r="352" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>12</v>
       </c>
@@ -31623,7 +31644,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="353" spans="1:32" hidden="1">
+    <row r="353" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>13</v>
       </c>
@@ -31704,7 +31725,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="354" spans="1:32" hidden="1">
+    <row r="354" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>50</v>
       </c>
@@ -31785,7 +31806,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="355" spans="1:32" hidden="1">
+    <row r="355" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>51</v>
       </c>
@@ -31866,7 +31887,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="356" spans="1:32" hidden="1">
+    <row r="356" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>52</v>
       </c>
@@ -31943,7 +31964,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="357" spans="1:32" hidden="1">
+    <row r="357" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>53</v>
       </c>
@@ -32024,7 +32045,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="358" spans="1:32" hidden="1">
+    <row r="358" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>54</v>
       </c>
@@ -32105,7 +32126,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="359" spans="1:32" hidden="1">
+    <row r="359" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>56</v>
       </c>
@@ -32186,7 +32207,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="360" spans="1:32" hidden="1">
+    <row r="360" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>115</v>
       </c>
@@ -32268,7 +32289,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="361" spans="1:32" hidden="1">
+    <row r="361" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>163</v>
       </c>
@@ -32345,7 +32366,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="362" spans="1:32" hidden="1">
+    <row r="362" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>164</v>
       </c>
@@ -32423,7 +32444,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="363" spans="1:32" hidden="1">
+    <row r="363" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>169</v>
       </c>
@@ -32501,7 +32522,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="364" spans="1:32" hidden="1">
+    <row r="364" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>174</v>
       </c>
@@ -32579,7 +32600,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="365" spans="1:32" hidden="1">
+    <row r="365" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>181</v>
       </c>
@@ -32660,7 +32681,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="366" spans="1:32" hidden="1">
+    <row r="366" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>182</v>
       </c>
@@ -32741,7 +32762,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="367" spans="1:32" hidden="1">
+    <row r="367" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>206</v>
       </c>
@@ -32822,7 +32843,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="368" spans="1:32" hidden="1">
+    <row r="368" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>207</v>
       </c>
@@ -32903,7 +32924,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:36" hidden="1">
+    <row r="369" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>423</v>
       </c>
@@ -32984,7 +33005,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="370" spans="1:36" hidden="1">
+    <row r="370" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>424</v>
       </c>
@@ -33065,7 +33086,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="371" spans="1:36" hidden="1">
+    <row r="371" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>89</v>
       </c>
@@ -33142,7 +33163,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="372" spans="1:36" hidden="1">
+    <row r="372" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>116</v>
       </c>
@@ -33223,7 +33244,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="373" spans="1:36" hidden="1">
+    <row r="373" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>175</v>
       </c>
@@ -33301,7 +33322,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="374" spans="1:36" hidden="1">
+    <row r="374" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>176</v>
       </c>
@@ -33378,7 +33399,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="375" spans="1:36" hidden="1">
+    <row r="375" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>183</v>
       </c>
@@ -33459,7 +33480,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="376" spans="1:36" hidden="1">
+    <row r="376" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>184</v>
       </c>
@@ -33540,7 +33561,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="377" spans="1:36" hidden="1">
+    <row r="377" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>59</v>
       </c>
@@ -33621,7 +33642,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="378" spans="1:36" hidden="1">
+    <row r="378" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>60</v>
       </c>
@@ -33702,7 +33723,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="379" spans="1:36" hidden="1">
+    <row r="379" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>62</v>
       </c>
@@ -33783,7 +33804,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="380" spans="1:36" hidden="1">
+    <row r="380" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -33861,7 +33882,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="381" spans="1:36" hidden="1">
+    <row r="381" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>5</v>
       </c>
@@ -33942,7 +33963,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="382" spans="1:36" hidden="1">
+    <row r="382" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>6</v>
       </c>
@@ -34024,7 +34045,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="383" spans="1:36" hidden="1">
+    <row r="383" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>18</v>
       </c>
@@ -34106,7 +34127,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="384" spans="1:36" hidden="1">
+    <row r="384" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>67</v>
       </c>
@@ -34186,10 +34207,10 @@
         <v>735</v>
       </c>
       <c r="AJ384" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="385" spans="1:36" hidden="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="385" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>70</v>
       </c>
@@ -34266,7 +34287,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="386" spans="1:36" hidden="1">
+    <row r="386" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>90</v>
       </c>
@@ -34343,7 +34364,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="387" spans="1:36" hidden="1">
+    <row r="387" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>121</v>
       </c>
@@ -34424,7 +34445,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="388" spans="1:36" hidden="1">
+    <row r="388" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>144</v>
       </c>
@@ -34502,7 +34523,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="389" spans="1:36" hidden="1">
+    <row r="389" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>188</v>
       </c>
@@ -34584,7 +34605,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="390" spans="1:36" hidden="1">
+    <row r="390" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>218</v>
       </c>
@@ -34662,7 +34683,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="391" spans="1:36" hidden="1">
+    <row r="391" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>279</v>
       </c>
@@ -34740,7 +34761,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="392" spans="1:36" hidden="1">
+    <row r="392" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>311</v>
       </c>
@@ -34817,7 +34838,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="393" spans="1:36" hidden="1">
+    <row r="393" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>327</v>
       </c>
@@ -34895,7 +34916,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="394" spans="1:36" hidden="1">
+    <row r="394" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>429</v>
       </c>
@@ -34973,7 +34994,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="395" spans="1:36" ht="15.75" hidden="1">
+    <row r="395" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -35051,7 +35072,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="396" spans="1:36" ht="15.75" hidden="1">
+    <row r="396" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>71</v>
       </c>
@@ -35131,7 +35152,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="397" spans="1:36" ht="15.75" hidden="1">
+    <row r="397" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>77</v>
       </c>
@@ -35209,7 +35230,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="398" spans="1:36" hidden="1">
+    <row r="398" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>122</v>
       </c>
@@ -35291,7 +35312,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="399" spans="1:36" hidden="1">
+    <row r="399" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>193</v>
       </c>
@@ -35369,7 +35390,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="400" spans="1:36" hidden="1">
+    <row r="400" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>214</v>
       </c>
@@ -35446,7 +35467,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="401" spans="1:36" hidden="1">
+    <row r="401" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>274</v>
       </c>
@@ -35523,7 +35544,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="402" spans="1:36" hidden="1">
+    <row r="402" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>275</v>
       </c>
@@ -35600,7 +35621,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="403" spans="1:36" ht="15.75" hidden="1">
+    <row r="403" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>332</v>
       </c>
@@ -35683,7 +35704,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="404" spans="1:36" ht="15.75" hidden="1">
+    <row r="404" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>389</v>
       </c>
@@ -35760,7 +35781,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="405" spans="1:36" hidden="1">
+    <row r="405" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>430</v>
       </c>
@@ -35838,7 +35859,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="406" spans="1:36" hidden="1">
+    <row r="406" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>434</v>
       </c>
@@ -35915,7 +35936,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="407" spans="1:36" ht="15.75" hidden="1">
+    <row r="407" spans="1:36" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>446</v>
       </c>
@@ -35996,7 +36017,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="408" spans="1:36" hidden="1">
+    <row r="408" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4</v>
       </c>
@@ -36074,7 +36095,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="409" spans="1:36" hidden="1">
+    <row r="409" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>68</v>
       </c>
@@ -36155,10 +36176,10 @@
         <v>735</v>
       </c>
       <c r="AJ409" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="410" spans="1:36" hidden="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="410" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>72</v>
       </c>
@@ -36235,7 +36256,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="411" spans="1:36" hidden="1">
+    <row r="411" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>91</v>
       </c>
@@ -36312,7 +36333,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="412" spans="1:36" hidden="1">
+    <row r="412" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>100</v>
       </c>
@@ -36389,7 +36410,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="413" spans="1:36" hidden="1">
+    <row r="413" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>101</v>
       </c>
@@ -36466,7 +36487,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="414" spans="1:36" hidden="1">
+    <row r="414" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>145</v>
       </c>
@@ -36543,7 +36564,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="415" spans="1:36" hidden="1">
+    <row r="415" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>170</v>
       </c>
@@ -36620,7 +36641,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="416" spans="1:36" hidden="1">
+    <row r="416" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>171</v>
       </c>
@@ -36698,7 +36719,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="417" spans="1:32" hidden="1">
+    <row r="417" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>172</v>
       </c>
@@ -36775,7 +36796,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="418" spans="1:32" hidden="1">
+    <row r="418" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>173</v>
       </c>
@@ -36853,7 +36874,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="419" spans="1:32" hidden="1">
+    <row r="419" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>189</v>
       </c>
@@ -36934,7 +36955,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="420" spans="1:32" hidden="1">
+    <row r="420" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>208</v>
       </c>
@@ -37015,7 +37036,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="421" spans="1:32" hidden="1">
+    <row r="421" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>215</v>
       </c>
@@ -37092,7 +37113,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="422" spans="1:32" hidden="1">
+    <row r="422" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>219</v>
       </c>
@@ -37169,7 +37190,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="423" spans="1:32" hidden="1">
+    <row r="423" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>276</v>
       </c>
@@ -37246,7 +37267,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="424" spans="1:32" hidden="1">
+    <row r="424" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>277</v>
       </c>
@@ -37323,7 +37344,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="425" spans="1:32" hidden="1">
+    <row r="425" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>328</v>
       </c>
@@ -37401,7 +37422,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="426" spans="1:32" hidden="1">
+    <row r="426" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>338</v>
       </c>
@@ -37479,7 +37500,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="427" spans="1:32" hidden="1">
+    <row r="427" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>339</v>
       </c>
@@ -37556,7 +37577,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="428" spans="1:32" hidden="1">
+    <row r="428" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>431</v>
       </c>
@@ -37633,7 +37654,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="429" spans="1:32" hidden="1">
+    <row r="429" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>447</v>
       </c>
@@ -37714,7 +37735,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="430" spans="1:32" hidden="1">
+    <row r="430" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>152</v>
       </c>
@@ -37792,7 +37813,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="431" spans="1:32" hidden="1">
+    <row r="431" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>153</v>
       </c>
@@ -37869,7 +37890,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="432" spans="1:32" hidden="1">
+    <row r="432" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>154</v>
       </c>
@@ -37946,7 +37967,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="433" spans="1:36" hidden="1">
+    <row r="433" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>155</v>
       </c>
@@ -38023,7 +38044,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="434" spans="1:36" hidden="1">
+    <row r="434" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>253</v>
       </c>
@@ -38100,7 +38121,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="435" spans="1:36" hidden="1">
+    <row r="435" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>177</v>
       </c>
@@ -38177,7 +38198,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="436" spans="1:36" hidden="1">
+    <row r="436" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>178</v>
       </c>
@@ -38254,7 +38275,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="437" spans="1:36" hidden="1">
+    <row r="437" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>179</v>
       </c>
@@ -38331,7 +38352,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="438" spans="1:36" hidden="1">
+    <row r="438" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>180</v>
       </c>
@@ -38409,7 +38430,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="439" spans="1:36" hidden="1">
+    <row r="439" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3</v>
       </c>
@@ -38487,7 +38508,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="440" spans="1:36" hidden="1">
+    <row r="440" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>69</v>
       </c>
@@ -38567,10 +38588,10 @@
         <v>735</v>
       </c>
       <c r="AJ440" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="441" spans="1:36" hidden="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="441" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>73</v>
       </c>
@@ -38647,7 +38668,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="442" spans="1:36" hidden="1">
+    <row r="442" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>92</v>
       </c>
@@ -38725,7 +38746,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="443" spans="1:36" hidden="1">
+    <row r="443" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>123</v>
       </c>
@@ -38807,7 +38828,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="444" spans="1:36" hidden="1">
+    <row r="444" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>146</v>
       </c>
@@ -38884,7 +38905,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="445" spans="1:36" hidden="1">
+    <row r="445" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>147</v>
       </c>
@@ -38961,7 +38982,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="446" spans="1:36" hidden="1">
+    <row r="446" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>237</v>
       </c>
@@ -39043,7 +39064,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="447" spans="1:36" hidden="1">
+    <row r="447" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>280</v>
       </c>
@@ -39121,7 +39142,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="448" spans="1:36" hidden="1">
+    <row r="448" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>281</v>
       </c>
@@ -39199,7 +39220,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="449" spans="1:32" hidden="1">
+    <row r="449" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>435</v>
       </c>
@@ -39276,7 +39297,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="450" spans="1:32" hidden="1">
+    <row r="450" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>78</v>
       </c>
@@ -39353,7 +39374,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="451" spans="1:32" hidden="1">
+    <row r="451" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>124</v>
       </c>
@@ -39435,7 +39456,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="452" spans="1:32" hidden="1">
+    <row r="452" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>216</v>
       </c>
@@ -39512,7 +39533,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="453" spans="1:32" hidden="1">
+    <row r="453" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>390</v>
       </c>
@@ -39589,7 +39610,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="454" spans="1:32" hidden="1">
+    <row r="454" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>74</v>
       </c>
@@ -39666,7 +39687,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="455" spans="1:32" hidden="1">
+    <row r="455" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>269</v>
       </c>
@@ -39747,7 +39768,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="456" spans="1:32" hidden="1">
+    <row r="456" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>303</v>
       </c>
@@ -39824,7 +39845,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="457" spans="1:32" hidden="1">
+    <row r="457" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>330</v>
       </c>
@@ -39905,7 +39926,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="458" spans="1:32" hidden="1">
+    <row r="458" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>165</v>
       </c>
@@ -39982,7 +40003,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="459" spans="1:32" hidden="1">
+    <row r="459" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>272</v>
       </c>
@@ -40060,7 +40081,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="460" spans="1:32" hidden="1">
+    <row r="460" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>220</v>
       </c>
@@ -40137,7 +40158,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="461" spans="1:32" hidden="1">
+    <row r="461" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>283</v>
       </c>
@@ -40214,7 +40235,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="462" spans="1:32" hidden="1">
+    <row r="462" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>140</v>
       </c>
@@ -40291,7 +40312,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="463" spans="1:32" hidden="1">
+    <row r="463" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>273</v>
       </c>
@@ -40368,7 +40389,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="464" spans="1:32" hidden="1">
+    <row r="464" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>141</v>
       </c>
@@ -40445,7 +40466,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="465" spans="1:36" hidden="1">
+    <row r="465" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>21</v>
       </c>
@@ -40522,7 +40543,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="466" spans="1:36" hidden="1">
+    <row r="466" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>43</v>
       </c>
@@ -40599,7 +40620,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="467" spans="1:36" ht="15.75">
+    <row r="467" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>132</v>
       </c>
@@ -40643,9 +40664,9 @@
         <f>E467-2</f>
         <v>88</v>
       </c>
-      <c r="N467" t="e">
-        <f ca="1">_xlfn.T.DIST.2T(L467,M467)</f>
-        <v>#NAME?</v>
+      <c r="N467">
+        <f>_xlfn.T.DIST.2T(L467,M467)</f>
+        <v>4.8471828507328729E-2</v>
       </c>
       <c r="O467" s="4" t="s">
         <v>506</v>
@@ -40708,10 +40729,10 @@
         <v>1.1900000000000001E-2</v>
       </c>
       <c r="AJ467" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="468" spans="1:36">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="468" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>129</v>
       </c>
@@ -40791,8 +40812,11 @@
       <c r="AF468" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="469" spans="1:36">
+      <c r="AJ468" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="469" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>130</v>
       </c>
@@ -40869,7 +40893,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="470" spans="1:36">
+    <row r="470" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>131</v>
       </c>
@@ -40947,7 +40971,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="471" spans="1:36" hidden="1">
+    <row r="471" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>261</v>
       </c>
@@ -41024,7 +41048,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="472" spans="1:36" hidden="1">
+    <row r="472" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>192</v>
       </c>
@@ -41101,7 +41125,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="473" spans="1:36" hidden="1">
+    <row r="473" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>88</v>
       </c>
@@ -41178,7 +41202,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="474" spans="1:36" hidden="1">
+    <row r="474" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>187</v>
       </c>
@@ -41255,7 +41279,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="475" spans="1:36" hidden="1">
+    <row r="475" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>76</v>
       </c>
@@ -41337,7 +41361,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="476" spans="1:36" hidden="1">
+    <row r="476" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>150</v>
       </c>
@@ -41419,7 +41443,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="477" spans="1:36" hidden="1">
+    <row r="477" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>151</v>
       </c>
@@ -41501,7 +41525,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="478" spans="1:36" hidden="1">
+    <row r="478" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>202</v>
       </c>
@@ -41578,7 +41602,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="479" spans="1:36" hidden="1">
+    <row r="479" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>203</v>
       </c>
@@ -41660,7 +41684,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="480" spans="1:36" hidden="1">
+    <row r="480" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>305</v>
       </c>
@@ -41742,17 +41766,107 @@
         <v>735</v>
       </c>
     </row>
-    <row r="481" hidden="1"/>
+    <row r="481" spans="2:32" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B482" t="s">
+        <v>820</v>
+      </c>
+      <c r="C482" t="s">
+        <v>723</v>
+      </c>
+      <c r="D482" t="s">
+        <v>724</v>
+      </c>
+      <c r="E482" s="2">
+        <v>75</v>
+      </c>
+      <c r="F482">
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="P482" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q482" t="s">
+        <v>727</v>
+      </c>
+      <c r="R482">
+        <v>1</v>
+      </c>
+      <c r="S482" t="s">
+        <v>729</v>
+      </c>
+      <c r="T482" t="s">
+        <v>727</v>
+      </c>
+      <c r="V482" t="s">
+        <v>731</v>
+      </c>
+      <c r="W482" t="s">
+        <v>732</v>
+      </c>
+      <c r="X482" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y482" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z482" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA482" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB482" t="s">
+        <v>733</v>
+      </c>
+      <c r="AC482" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF482" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="483" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B483" t="s">
+        <v>821</v>
+      </c>
+      <c r="C483" t="s">
+        <v>743</v>
+      </c>
+      <c r="D483" t="s">
+        <v>724</v>
+      </c>
+      <c r="E483" s="2">
+        <v>66</v>
+      </c>
+      <c r="F483">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B484" t="s">
+        <v>822</v>
+      </c>
+      <c r="C484" t="s">
+        <v>737</v>
+      </c>
+      <c r="D484" t="s">
+        <v>724</v>
+      </c>
+      <c r="E484" s="2">
+        <v>141</v>
+      </c>
+      <c r="F484">
+        <v>0.14349999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AJ481">
-    <filterColumn colId="2"/>
     <filterColumn colId="14">
       <filters>
         <filter val="Carnagey, N. L., &amp; Anderson, C.A. (2005). The effects of reward and punishment in violent video games on aggressive affect, cognition, and behavior. Psychological Science, 16, 882-889."/>
       </filters>
     </filterColumn>
-    <filterColumn colId="15"/>
-    <filterColumn colId="24"/>
     <sortState ref="A237:AJ470">
       <sortCondition ref="R1:R481"/>
     </sortState>
@@ -41765,12 +41879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
@@ -41778,12 +41892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
